--- a/Implementation/Python/experiment5matching.xlsx
+++ b/Implementation/Python/experiment5matching.xlsx
@@ -530,97 +530,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50</v>
+        <v>0.1</v>
       </c>
       <c r="B2" t="n">
-        <v>55.00000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>0.12</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>0.13</v>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>0.14</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>0.15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>0.16</v>
       </c>
       <c r="H2" t="n">
-        <v>85</v>
+        <v>0.17</v>
       </c>
       <c r="I2" t="n">
-        <v>90</v>
+        <v>0.18</v>
       </c>
       <c r="J2" t="n">
-        <v>95</v>
+        <v>0.19</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>0.2</v>
       </c>
       <c r="L2" t="n">
-        <v>105</v>
+        <v>0.21</v>
       </c>
       <c r="M2" t="n">
-        <v>110</v>
+        <v>0.22</v>
       </c>
       <c r="N2" t="n">
-        <v>115</v>
+        <v>0.23</v>
       </c>
       <c r="O2" t="n">
-        <v>120</v>
+        <v>0.24</v>
       </c>
       <c r="P2" t="n">
-        <v>125</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>130</v>
+        <v>0.26</v>
       </c>
       <c r="R2" t="n">
-        <v>135</v>
+        <v>0.27</v>
       </c>
       <c r="S2" t="n">
-        <v>140</v>
+        <v>0.28</v>
       </c>
       <c r="T2" t="n">
-        <v>145</v>
+        <v>0.29</v>
       </c>
       <c r="U2" t="n">
-        <v>150</v>
+        <v>0.3</v>
       </c>
       <c r="V2" t="n">
-        <v>155</v>
+        <v>0.31</v>
       </c>
       <c r="W2" t="n">
-        <v>160</v>
+        <v>0.32</v>
       </c>
       <c r="X2" t="n">
-        <v>165</v>
+        <v>0.33</v>
       </c>
       <c r="Y2" t="n">
-        <v>170</v>
+        <v>0.34</v>
       </c>
       <c r="Z2" t="n">
-        <v>175</v>
+        <v>0.35</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>0.36</v>
       </c>
       <c r="AB2" t="n">
-        <v>185</v>
+        <v>0.37</v>
       </c>
       <c r="AC2" t="n">
-        <v>190</v>
+        <v>0.38</v>
       </c>
       <c r="AD2" t="n">
-        <v>195</v>
+        <v>0.39</v>
       </c>
       <c r="AE2" t="n">
-        <v>200</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -640,82 +640,82 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>97.63307911518173</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>97.55329731588334</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>97.26295298651063</v>
       </c>
       <c r="I3" t="n">
-        <v>96.16736726513638</v>
+        <v>97.27729128588255</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>97.45892673230412</v>
       </c>
       <c r="K3" t="n">
-        <v>94.38658794805617</v>
+        <v>99.29767316215302</v>
       </c>
       <c r="L3" t="n">
-        <v>100</v>
+        <v>99.36414568755806</v>
       </c>
       <c r="M3" t="n">
-        <v>93.21924459901297</v>
+        <v>99.54103941699823</v>
       </c>
       <c r="N3" t="n">
-        <v>100</v>
+        <v>99.39892343321645</v>
       </c>
       <c r="O3" t="n">
-        <v>100</v>
+        <v>99.52514286760614</v>
       </c>
       <c r="P3" t="n">
-        <v>95.03978279421386</v>
+        <v>98.80170625663254</v>
       </c>
       <c r="Q3" t="n">
-        <v>100</v>
+        <v>98.73854334047762</v>
       </c>
       <c r="R3" t="n">
-        <v>100</v>
+        <v>98.96635095048603</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>98.86643143007252</v>
       </c>
       <c r="T3" t="n">
-        <v>100</v>
+        <v>98.80777454805119</v>
       </c>
       <c r="U3" t="n">
-        <v>100</v>
+        <v>99.62874023995275</v>
       </c>
       <c r="V3" t="n">
-        <v>100</v>
+        <v>99.63769639797174</v>
       </c>
       <c r="W3" t="n">
-        <v>100</v>
+        <v>99.61730692125332</v>
       </c>
       <c r="X3" t="n">
-        <v>100</v>
+        <v>99.4911390648669</v>
       </c>
       <c r="Y3" t="n">
-        <v>100</v>
+        <v>99.6462871947563</v>
       </c>
       <c r="Z3" t="n">
-        <v>100</v>
+        <v>99.60727091294774</v>
       </c>
       <c r="AA3" t="n">
-        <v>100</v>
+        <v>99.46052428181872</v>
       </c>
       <c r="AB3" t="n">
-        <v>100</v>
+        <v>99.57173853651284</v>
       </c>
       <c r="AC3" t="n">
-        <v>100</v>
+        <v>99.47328801225562</v>
       </c>
       <c r="AD3" t="n">
-        <v>90.32823694015684</v>
+        <v>99.53855722768679</v>
       </c>
       <c r="AE3" t="n">
-        <v>100</v>
+        <v>99.79166236178956</v>
       </c>
     </row>
     <row r="4">
@@ -732,85 +732,85 @@
         <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>97.33596821960724</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>97.5261925517139</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>97.26060578070907</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>97.04724283436799</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>97.05143136989999</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>96.99546520008278</v>
       </c>
       <c r="K4" t="n">
-        <v>100</v>
+        <v>99.49695852625076</v>
       </c>
       <c r="L4" t="n">
-        <v>100</v>
+        <v>99.58406391144096</v>
       </c>
       <c r="M4" t="n">
-        <v>87.06825209562369</v>
+        <v>99.613118043336</v>
       </c>
       <c r="N4" t="n">
-        <v>100</v>
+        <v>99.53862541910189</v>
       </c>
       <c r="O4" t="n">
-        <v>100</v>
+        <v>98.65189757689377</v>
       </c>
       <c r="P4" t="n">
-        <v>100</v>
+        <v>98.8621490251022</v>
       </c>
       <c r="Q4" t="n">
-        <v>100</v>
+        <v>98.64876569367176</v>
       </c>
       <c r="R4" t="n">
-        <v>100</v>
+        <v>98.75753314310836</v>
       </c>
       <c r="S4" t="n">
-        <v>97.63712387221784</v>
+        <v>98.89295349412772</v>
       </c>
       <c r="T4" t="n">
-        <v>100</v>
+        <v>98.83884730497857</v>
       </c>
       <c r="U4" t="n">
-        <v>100</v>
+        <v>99.69512599993429</v>
       </c>
       <c r="V4" t="n">
-        <v>100</v>
+        <v>99.64226894116995</v>
       </c>
       <c r="W4" t="n">
-        <v>100</v>
+        <v>99.7209208804471</v>
       </c>
       <c r="X4" t="n">
-        <v>100</v>
+        <v>99.68902541289431</v>
       </c>
       <c r="Y4" t="n">
-        <v>100</v>
+        <v>99.45735856474136</v>
       </c>
       <c r="Z4" t="n">
-        <v>97.88123867014207</v>
+        <v>99.69619728649859</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.36676430918348</v>
+        <v>99.49381079126314</v>
       </c>
       <c r="AB4" t="n">
-        <v>100</v>
+        <v>99.70488830693738</v>
       </c>
       <c r="AC4" t="n">
-        <v>100</v>
+        <v>99.62693559313874</v>
       </c>
       <c r="AD4" t="n">
-        <v>100</v>
+        <v>99.63206777890186</v>
       </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>99.96252441671106</v>
       </c>
     </row>
     <row r="5">
@@ -824,88 +824,88 @@
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>97.55980098162588</v>
+        <v>97.47012476288543</v>
       </c>
       <c r="E5" t="n">
-        <v>95.95916256657317</v>
+        <v>97.53170422817506</v>
       </c>
       <c r="F5" t="n">
-        <v>94.16416810055111</v>
+        <v>96.52506579656777</v>
       </c>
       <c r="G5" t="n">
-        <v>97.204227221072</v>
+        <v>96.68428281529853</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>96.59054599107436</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>97.3426552207381</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>97.16387968029309</v>
       </c>
       <c r="K5" t="n">
-        <v>100</v>
+        <v>99.76921029705875</v>
       </c>
       <c r="L5" t="n">
-        <v>100</v>
+        <v>99.71189975557712</v>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>99.81698858437177</v>
       </c>
       <c r="N5" t="n">
-        <v>100</v>
+        <v>99.04683658744001</v>
       </c>
       <c r="O5" t="n">
-        <v>97.1862707398701</v>
+        <v>99.00685133271267</v>
       </c>
       <c r="P5" t="n">
-        <v>100</v>
+        <v>98.69887976945077</v>
       </c>
       <c r="Q5" t="n">
-        <v>100</v>
+        <v>98.60910323558969</v>
       </c>
       <c r="R5" t="n">
-        <v>95.3206874911323</v>
+        <v>98.6336730436193</v>
       </c>
       <c r="S5" t="n">
-        <v>98.00052894903082</v>
+        <v>98.85572895127656</v>
       </c>
       <c r="T5" t="n">
-        <v>100</v>
+        <v>98.82085322826013</v>
       </c>
       <c r="U5" t="n">
-        <v>100</v>
+        <v>99.85200388907059</v>
       </c>
       <c r="V5" t="n">
-        <v>100</v>
+        <v>99.80598686902556</v>
       </c>
       <c r="W5" t="n">
-        <v>100</v>
+        <v>99.82003243702317</v>
       </c>
       <c r="X5" t="n">
-        <v>98.06009832325657</v>
+        <v>99.6132762802165</v>
       </c>
       <c r="Y5" t="n">
-        <v>100</v>
+        <v>99.68729360283092</v>
       </c>
       <c r="Z5" t="n">
-        <v>100</v>
+        <v>99.67931086097741</v>
       </c>
       <c r="AA5" t="n">
-        <v>100</v>
+        <v>99.64846121341218</v>
       </c>
       <c r="AB5" t="n">
-        <v>100</v>
+        <v>99.66993221589149</v>
       </c>
       <c r="AC5" t="n">
-        <v>100</v>
+        <v>99.83322620489315</v>
       </c>
       <c r="AD5" t="n">
-        <v>100</v>
+        <v>99.80224112670632</v>
       </c>
       <c r="AE5" t="n">
-        <v>100</v>
+        <v>99.96263699319839</v>
       </c>
     </row>
     <row r="6">
@@ -916,91 +916,91 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>98.91154707952423</v>
+        <v>97.60098848769501</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>97.71748932588925</v>
       </c>
       <c r="E6" t="n">
-        <v>93.09191451827874</v>
+        <v>96.24129804867808</v>
       </c>
       <c r="F6" t="n">
-        <v>96.3398642729867</v>
+        <v>96.23220602138426</v>
       </c>
       <c r="G6" t="n">
-        <v>93.96886349522291</v>
+        <v>95.75608739125042</v>
       </c>
       <c r="H6" t="n">
-        <v>92.16883050109041</v>
+        <v>96.34511455380294</v>
       </c>
       <c r="I6" t="n">
-        <v>100</v>
+        <v>97.22279717527074</v>
       </c>
       <c r="J6" t="n">
-        <v>92.59719330389828</v>
+        <v>97.13672754476343</v>
       </c>
       <c r="K6" t="n">
-        <v>100</v>
+        <v>99.82514253444793</v>
       </c>
       <c r="L6" t="n">
-        <v>100</v>
+        <v>99.80125081631245</v>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>99.19254677087933</v>
       </c>
       <c r="N6" t="n">
-        <v>100</v>
+        <v>99.05838074771415</v>
       </c>
       <c r="O6" t="n">
-        <v>100</v>
+        <v>98.55723077128341</v>
       </c>
       <c r="P6" t="n">
-        <v>94.4537923489037</v>
+        <v>98.56356658410839</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>98.73382487786331</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>98.73097118223433</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>99.19117426149521</v>
       </c>
       <c r="T6" t="n">
-        <v>93.78257257316751</v>
+        <v>99.12608590780415</v>
       </c>
       <c r="U6" t="n">
-        <v>100</v>
+        <v>99.86449577428309</v>
       </c>
       <c r="V6" t="n">
-        <v>100</v>
+        <v>99.90788947088527</v>
       </c>
       <c r="W6" t="n">
-        <v>100</v>
+        <v>99.78759716405105</v>
       </c>
       <c r="X6" t="n">
-        <v>100</v>
+        <v>99.73897227101143</v>
       </c>
       <c r="Y6" t="n">
-        <v>98.27823641652532</v>
+        <v>99.74098862511627</v>
       </c>
       <c r="Z6" t="n">
-        <v>100</v>
+        <v>99.71975101844932</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.13020646966606</v>
+        <v>99.80716107714667</v>
       </c>
       <c r="AB6" t="n">
-        <v>100</v>
+        <v>99.80851327779816</v>
       </c>
       <c r="AC6" t="n">
-        <v>100</v>
+        <v>99.82664130126054</v>
       </c>
       <c r="AD6" t="n">
-        <v>100</v>
+        <v>99.84061659878138</v>
       </c>
       <c r="AE6" t="n">
-        <v>100</v>
+        <v>99.9847069911651</v>
       </c>
     </row>
     <row r="7">
@@ -1011,91 +1011,91 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>97.98211810713674</v>
       </c>
       <c r="D7" t="n">
-        <v>97.30937808085802</v>
+        <v>97.87324130145039</v>
       </c>
       <c r="E7" t="n">
-        <v>94.7572371620824</v>
+        <v>96.30962697956002</v>
       </c>
       <c r="F7" t="n">
-        <v>91.62067025590834</v>
+        <v>95.58161444477182</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>95.85833700677695</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>96.40322453115692</v>
       </c>
       <c r="I7" t="n">
-        <v>95.94620360012203</v>
+        <v>96.18624701119811</v>
       </c>
       <c r="J7" t="n">
-        <v>96.39359519145655</v>
+        <v>97.45753368933858</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>99.83365971531126</v>
       </c>
       <c r="L7" t="n">
-        <v>100</v>
+        <v>99.87455208895716</v>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>99.2457739567777</v>
       </c>
       <c r="N7" t="n">
-        <v>99.62720238548924</v>
+        <v>99.05031090964467</v>
       </c>
       <c r="O7" t="n">
-        <v>100</v>
+        <v>98.74108078661928</v>
       </c>
       <c r="P7" t="n">
-        <v>100</v>
+        <v>98.69012317696945</v>
       </c>
       <c r="Q7" t="n">
-        <v>97.30019283781242</v>
+        <v>98.74024953883681</v>
       </c>
       <c r="R7" t="n">
-        <v>98.31365967720529</v>
+        <v>98.97791029636113</v>
       </c>
       <c r="S7" t="n">
-        <v>100</v>
+        <v>99.03143587252757</v>
       </c>
       <c r="T7" t="n">
-        <v>100</v>
+        <v>99.25987186254507</v>
       </c>
       <c r="U7" t="n">
-        <v>100</v>
+        <v>99.89822272826896</v>
       </c>
       <c r="V7" t="n">
-        <v>100</v>
+        <v>99.87184788372726</v>
       </c>
       <c r="W7" t="n">
-        <v>100</v>
+        <v>99.77001403517427</v>
       </c>
       <c r="X7" t="n">
-        <v>100</v>
+        <v>99.8347264224296</v>
       </c>
       <c r="Y7" t="n">
-        <v>98.985650930766</v>
+        <v>99.77575002888945</v>
       </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>99.75438240094526</v>
       </c>
       <c r="AA7" t="n">
-        <v>100</v>
+        <v>99.76522196838278</v>
       </c>
       <c r="AB7" t="n">
-        <v>100</v>
+        <v>99.83418657164633</v>
       </c>
       <c r="AC7" t="n">
-        <v>100</v>
+        <v>99.82667067504887</v>
       </c>
       <c r="AD7" t="n">
-        <v>100</v>
+        <v>99.91167788344711</v>
       </c>
       <c r="AE7" t="n">
-        <v>100</v>
+        <v>99.98330872981674</v>
       </c>
     </row>
     <row r="8">
@@ -1106,91 +1106,91 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>93.87748792523327</v>
+        <v>98.08646286242187</v>
       </c>
       <c r="D8" t="n">
-        <v>92.19981308602118</v>
+        <v>96.46578464767306</v>
       </c>
       <c r="E8" t="n">
-        <v>96.35858943401409</v>
+        <v>96.29927600942008</v>
       </c>
       <c r="F8" t="n">
-        <v>92.53782400984016</v>
+        <v>95.94935344846144</v>
       </c>
       <c r="G8" t="n">
-        <v>91.19274262617645</v>
+        <v>95.81988662985404</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>95.97057264824956</v>
       </c>
       <c r="I8" t="n">
-        <v>94.51899704153703</v>
+        <v>96.23389626684083</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>97.8409836765792</v>
       </c>
       <c r="K8" t="n">
-        <v>100</v>
+        <v>99.91571339474606</v>
       </c>
       <c r="L8" t="n">
-        <v>100</v>
+        <v>99.88461881041758</v>
       </c>
       <c r="M8" t="n">
-        <v>99.81372034692751</v>
+        <v>99.26538658623144</v>
       </c>
       <c r="N8" t="n">
-        <v>99.25436099197363</v>
+        <v>98.84924526445943</v>
       </c>
       <c r="O8" t="n">
-        <v>98.17198675720195</v>
+        <v>98.86777038943268</v>
       </c>
       <c r="P8" t="n">
-        <v>100</v>
+        <v>98.79769906389308</v>
       </c>
       <c r="Q8" t="n">
-        <v>100</v>
+        <v>98.79723870934252</v>
       </c>
       <c r="R8" t="n">
-        <v>100</v>
+        <v>98.93538403522291</v>
       </c>
       <c r="S8" t="n">
-        <v>100</v>
+        <v>99.18424710442306</v>
       </c>
       <c r="T8" t="n">
-        <v>100</v>
+        <v>99.44388283534404</v>
       </c>
       <c r="U8" t="n">
-        <v>100</v>
+        <v>99.94337194931934</v>
       </c>
       <c r="V8" t="n">
-        <v>100</v>
+        <v>99.91156244665791</v>
       </c>
       <c r="W8" t="n">
-        <v>100</v>
+        <v>99.86091726849405</v>
       </c>
       <c r="X8" t="n">
-        <v>100</v>
+        <v>99.7798047787973</v>
       </c>
       <c r="Y8" t="n">
-        <v>100</v>
+        <v>99.77801829583544</v>
       </c>
       <c r="Z8" t="n">
-        <v>99.99279884721813</v>
+        <v>99.84902694038529</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>99.82565414972201</v>
       </c>
       <c r="AB8" t="n">
-        <v>99.11889745539074</v>
+        <v>99.81815098526047</v>
       </c>
       <c r="AC8" t="n">
-        <v>100</v>
+        <v>99.86300370926179</v>
       </c>
       <c r="AD8" t="n">
-        <v>100</v>
+        <v>99.9263948317447</v>
       </c>
       <c r="AE8" t="n">
-        <v>100</v>
+        <v>99.99059548146859</v>
       </c>
     </row>
     <row r="9">
@@ -1201,91 +1201,91 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>98.29141859789303</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>96.80102516536108</v>
       </c>
       <c r="E9" t="n">
-        <v>97.98345699835951</v>
+        <v>95.68788769149175</v>
       </c>
       <c r="F9" t="n">
-        <v>90.00893029806269</v>
+        <v>95.67063288159301</v>
       </c>
       <c r="G9" t="n">
-        <v>96.37590249769914</v>
+        <v>95.42043079587491</v>
       </c>
       <c r="H9" t="n">
-        <v>96.63318102132644</v>
+        <v>95.78166120858803</v>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>96.69247786885515</v>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>98.16142758594147</v>
       </c>
       <c r="K9" t="n">
-        <v>100</v>
+        <v>99.89524774954278</v>
       </c>
       <c r="L9" t="n">
-        <v>100</v>
+        <v>99.96995929600688</v>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>99.3814640024512</v>
       </c>
       <c r="N9" t="n">
-        <v>99.07725951902921</v>
+        <v>98.88165792148459</v>
       </c>
       <c r="O9" t="n">
-        <v>95.37912101810348</v>
+        <v>98.9429510458101</v>
       </c>
       <c r="P9" t="n">
-        <v>97.58616670057691</v>
+        <v>98.83224353361551</v>
       </c>
       <c r="Q9" t="n">
-        <v>100</v>
+        <v>98.77391536262166</v>
       </c>
       <c r="R9" t="n">
-        <v>98.11647644380621</v>
+        <v>98.96639800894758</v>
       </c>
       <c r="S9" t="n">
-        <v>95.93815696428349</v>
+        <v>99.21035149973477</v>
       </c>
       <c r="T9" t="n">
-        <v>100</v>
+        <v>99.54227842119307</v>
       </c>
       <c r="U9" t="n">
-        <v>100</v>
+        <v>99.95466660746476</v>
       </c>
       <c r="V9" t="n">
-        <v>100</v>
+        <v>99.93545204934054</v>
       </c>
       <c r="W9" t="n">
-        <v>100</v>
+        <v>99.83448458180575</v>
       </c>
       <c r="X9" t="n">
-        <v>100</v>
+        <v>99.83107190637722</v>
       </c>
       <c r="Y9" t="n">
-        <v>100</v>
+        <v>99.82763622133079</v>
       </c>
       <c r="Z9" t="n">
-        <v>96.51911255186936</v>
+        <v>99.85224389028204</v>
       </c>
       <c r="AA9" t="n">
-        <v>100</v>
+        <v>99.83236765877763</v>
       </c>
       <c r="AB9" t="n">
-        <v>100</v>
+        <v>99.87617399091478</v>
       </c>
       <c r="AC9" t="n">
-        <v>100</v>
+        <v>99.85106706508951</v>
       </c>
       <c r="AD9" t="n">
-        <v>100</v>
+        <v>99.9194118321914</v>
       </c>
       <c r="AE9" t="n">
-        <v>100</v>
+        <v>99.98510281442546</v>
       </c>
     </row>
     <row r="10">
@@ -1296,91 +1296,91 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>97.02574520813477</v>
+        <v>98.32617241470231</v>
       </c>
       <c r="D10" t="n">
-        <v>91.59629921596746</v>
+        <v>96.96672606673921</v>
       </c>
       <c r="E10" t="n">
-        <v>92.81745886783386</v>
+        <v>95.85827920209039</v>
       </c>
       <c r="F10" t="n">
-        <v>98.25910110160814</v>
+        <v>95.20541005190059</v>
       </c>
       <c r="G10" t="n">
-        <v>94.09285561512326</v>
+        <v>95.31794743338995</v>
       </c>
       <c r="H10" t="n">
-        <v>94.94075839640317</v>
+        <v>95.76111103111815</v>
       </c>
       <c r="I10" t="n">
-        <v>93.95747488714537</v>
+        <v>96.91253677027053</v>
       </c>
       <c r="J10" t="n">
-        <v>81.85162118878391</v>
+        <v>98.07993249013309</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>99.94087373525439</v>
       </c>
       <c r="L10" t="n">
-        <v>100</v>
+        <v>99.92988029028584</v>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>99.42136321014438</v>
       </c>
       <c r="N10" t="n">
-        <v>98.11299635866082</v>
+        <v>99.02234145845581</v>
       </c>
       <c r="O10" t="n">
-        <v>97.963455073855</v>
+        <v>98.98433918468757</v>
       </c>
       <c r="P10" t="n">
-        <v>100</v>
+        <v>98.91632853394051</v>
       </c>
       <c r="Q10" t="n">
-        <v>100</v>
+        <v>98.95632452580405</v>
       </c>
       <c r="R10" t="n">
-        <v>100</v>
+        <v>98.94960622108751</v>
       </c>
       <c r="S10" t="n">
-        <v>100</v>
+        <v>99.32624559068275</v>
       </c>
       <c r="T10" t="n">
-        <v>100</v>
+        <v>99.62429000472545</v>
       </c>
       <c r="U10" t="n">
-        <v>100</v>
+        <v>99.96610837767733</v>
       </c>
       <c r="V10" t="n">
-        <v>100</v>
+        <v>99.97547786598815</v>
       </c>
       <c r="W10" t="n">
-        <v>100</v>
+        <v>99.88271168218252</v>
       </c>
       <c r="X10" t="n">
-        <v>100</v>
+        <v>99.81651412168647</v>
       </c>
       <c r="Y10" t="n">
-        <v>98.62333245714275</v>
+        <v>99.8098005987539</v>
       </c>
       <c r="Z10" t="n">
-        <v>100</v>
+        <v>99.84570446363281</v>
       </c>
       <c r="AA10" t="n">
-        <v>100</v>
+        <v>99.86951514388606</v>
       </c>
       <c r="AB10" t="n">
-        <v>100</v>
+        <v>99.90298621874753</v>
       </c>
       <c r="AC10" t="n">
-        <v>100</v>
+        <v>99.95163269117486</v>
       </c>
       <c r="AD10" t="n">
-        <v>100</v>
+        <v>99.95535154541332</v>
       </c>
       <c r="AE10" t="n">
-        <v>100</v>
+        <v>99.99470679009151</v>
       </c>
     </row>
     <row r="11">
@@ -1388,94 +1388,94 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>98.1357951986523</v>
+        <v>98.54429821103874</v>
       </c>
       <c r="C11" t="n">
-        <v>94.2957544857759</v>
+        <v>96.99507398002322</v>
       </c>
       <c r="D11" t="n">
-        <v>93.83521600485241</v>
+        <v>95.85504086850905</v>
       </c>
       <c r="E11" t="n">
-        <v>91.42132099896398</v>
+        <v>95.35570505825778</v>
       </c>
       <c r="F11" t="n">
-        <v>89.96081005751104</v>
+        <v>95.42607581099057</v>
       </c>
       <c r="G11" t="n">
-        <v>99.12908164922757</v>
+        <v>95.4410572435259</v>
       </c>
       <c r="H11" t="n">
-        <v>96.94539247121101</v>
+        <v>95.77349294402904</v>
       </c>
       <c r="I11" t="n">
-        <v>96.85352534443838</v>
+        <v>97.07259186077513</v>
       </c>
       <c r="J11" t="n">
-        <v>94.18173142681734</v>
+        <v>98.16779807536288</v>
       </c>
       <c r="K11" t="n">
-        <v>100</v>
+        <v>99.95584014373998</v>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>99.43766282132044</v>
       </c>
       <c r="M11" t="n">
-        <v>99.98111015936466</v>
+        <v>99.12287809788738</v>
       </c>
       <c r="N11" t="n">
-        <v>99.94129255825487</v>
+        <v>98.93133239362481</v>
       </c>
       <c r="O11" t="n">
-        <v>100</v>
+        <v>98.88608278689526</v>
       </c>
       <c r="P11" t="n">
-        <v>100</v>
+        <v>98.89312495343509</v>
       </c>
       <c r="Q11" t="n">
-        <v>100</v>
+        <v>99.08672457363652</v>
       </c>
       <c r="R11" t="n">
-        <v>100</v>
+        <v>99.07366371074613</v>
       </c>
       <c r="S11" t="n">
-        <v>100</v>
+        <v>99.48830502330348</v>
       </c>
       <c r="T11" t="n">
-        <v>100</v>
+        <v>99.75494620902644</v>
       </c>
       <c r="U11" t="n">
-        <v>100</v>
+        <v>99.94778451490764</v>
       </c>
       <c r="V11" t="n">
-        <v>100</v>
+        <v>99.89476951000623</v>
       </c>
       <c r="W11" t="n">
-        <v>100</v>
+        <v>99.88038013650559</v>
       </c>
       <c r="X11" t="n">
-        <v>100</v>
+        <v>99.8628687849276</v>
       </c>
       <c r="Y11" t="n">
-        <v>100</v>
+        <v>99.83936115316079</v>
       </c>
       <c r="Z11" t="n">
-        <v>99.27417636664492</v>
+        <v>99.86568980599418</v>
       </c>
       <c r="AA11" t="n">
-        <v>100</v>
+        <v>99.87903472597574</v>
       </c>
       <c r="AB11" t="n">
-        <v>100</v>
+        <v>99.89896409505495</v>
       </c>
       <c r="AC11" t="n">
-        <v>100</v>
+        <v>99.94816436517594</v>
       </c>
       <c r="AD11" t="n">
-        <v>100</v>
+        <v>99.96138675120918</v>
       </c>
       <c r="AE11" t="n">
-        <v>100</v>
+        <v>99.98789062936224</v>
       </c>
     </row>
     <row r="12">
@@ -1483,94 +1483,94 @@
         <v>100</v>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>98.58118433610356</v>
       </c>
       <c r="C12" t="n">
-        <v>96.17608362334222</v>
+        <v>97.02438183416162</v>
       </c>
       <c r="D12" t="n">
-        <v>91.24053967219767</v>
+        <v>96.04542440902168</v>
       </c>
       <c r="E12" t="n">
-        <v>95.90260561477309</v>
+        <v>95.44943170461447</v>
       </c>
       <c r="F12" t="n">
-        <v>98.37237230691679</v>
+        <v>94.9979300390514</v>
       </c>
       <c r="G12" t="n">
-        <v>95.50531693595509</v>
+        <v>95.14694837346647</v>
       </c>
       <c r="H12" t="n">
-        <v>93.99990757812556</v>
+        <v>95.19749516644407</v>
       </c>
       <c r="I12" t="n">
-        <v>97.29245251213636</v>
+        <v>96.17501564796362</v>
       </c>
       <c r="J12" t="n">
-        <v>92.75437272240733</v>
+        <v>96.99346385863829</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
+        <v>99.98407051570931</v>
       </c>
       <c r="L12" t="n">
-        <v>99.97353089456868</v>
+        <v>99.48140824597938</v>
       </c>
       <c r="M12" t="n">
-        <v>98.56727889509911</v>
+        <v>99.18792102838216</v>
       </c>
       <c r="N12" t="n">
-        <v>100</v>
+        <v>98.97641813763376</v>
       </c>
       <c r="O12" t="n">
-        <v>99.01727833225452</v>
+        <v>98.93564231109293</v>
       </c>
       <c r="P12" t="n">
-        <v>99.28024696710078</v>
+        <v>98.96660026680988</v>
       </c>
       <c r="Q12" t="n">
-        <v>100</v>
+        <v>98.95456340019309</v>
       </c>
       <c r="R12" t="n">
-        <v>100</v>
+        <v>99.01066103994941</v>
       </c>
       <c r="S12" t="n">
-        <v>100</v>
+        <v>99.26722470866819</v>
       </c>
       <c r="T12" t="n">
-        <v>100</v>
+        <v>99.48189153404358</v>
       </c>
       <c r="U12" t="n">
-        <v>100</v>
+        <v>99.96003148299404</v>
       </c>
       <c r="V12" t="n">
-        <v>100</v>
+        <v>99.93568395745793</v>
       </c>
       <c r="W12" t="n">
-        <v>100</v>
+        <v>99.89054446466005</v>
       </c>
       <c r="X12" t="n">
-        <v>100</v>
+        <v>99.86970834501209</v>
       </c>
       <c r="Y12" t="n">
-        <v>100</v>
+        <v>99.86581482289881</v>
       </c>
       <c r="Z12" t="n">
-        <v>100</v>
+        <v>99.87117981322361</v>
       </c>
       <c r="AA12" t="n">
-        <v>100</v>
+        <v>99.83058643813439</v>
       </c>
       <c r="AB12" t="n">
-        <v>98.91607481507225</v>
+        <v>99.92472951580385</v>
       </c>
       <c r="AC12" t="n">
-        <v>100</v>
+        <v>99.91482808660039</v>
       </c>
       <c r="AD12" t="n">
-        <v>100</v>
+        <v>99.94649075276804</v>
       </c>
       <c r="AE12" t="n">
-        <v>100</v>
+        <v>99.99524065298642</v>
       </c>
     </row>
     <row r="13">
@@ -1578,94 +1578,94 @@
         <v>100</v>
       </c>
       <c r="B13" t="n">
-        <v>99.56562877094214</v>
+        <v>98.81458555297466</v>
       </c>
       <c r="C13" t="n">
-        <v>97.45950226361887</v>
+        <v>97.41441658003086</v>
       </c>
       <c r="D13" t="n">
-        <v>96.48275715831282</v>
+        <v>96.21120763246883</v>
       </c>
       <c r="E13" t="n">
-        <v>94.68151319942163</v>
+        <v>95.64385781932273</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>94.97482971470663</v>
       </c>
       <c r="G13" t="n">
-        <v>94.8222579304754</v>
+        <v>95.17651989185033</v>
       </c>
       <c r="H13" t="n">
-        <v>94.92415892650449</v>
+        <v>95.35378706134632</v>
       </c>
       <c r="I13" t="n">
-        <v>97.98180880842239</v>
+        <v>96.661803955297</v>
       </c>
       <c r="J13" t="n">
-        <v>97.545105821014</v>
+        <v>97.12478276650002</v>
       </c>
       <c r="K13" t="n">
-        <v>100</v>
+        <v>99.96619705530726</v>
       </c>
       <c r="L13" t="n">
-        <v>98.51145431007583</v>
+        <v>99.55180632848307</v>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>99.26118368477498</v>
       </c>
       <c r="N13" t="n">
-        <v>98.52090795736899</v>
+        <v>99.09717431690008</v>
       </c>
       <c r="O13" t="n">
-        <v>96.27732041887313</v>
+        <v>98.98371784443979</v>
       </c>
       <c r="P13" t="n">
-        <v>100</v>
+        <v>98.94136224011559</v>
       </c>
       <c r="Q13" t="n">
-        <v>100</v>
+        <v>99.12379662588462</v>
       </c>
       <c r="R13" t="n">
-        <v>100</v>
+        <v>99.17685176480634</v>
       </c>
       <c r="S13" t="n">
-        <v>100</v>
+        <v>99.37550092853361</v>
       </c>
       <c r="T13" t="n">
-        <v>96.92462890569431</v>
+        <v>99.57615040280713</v>
       </c>
       <c r="U13" t="n">
-        <v>100</v>
+        <v>99.98627792740035</v>
       </c>
       <c r="V13" t="n">
-        <v>100</v>
+        <v>99.91598704314741</v>
       </c>
       <c r="W13" t="n">
-        <v>100</v>
+        <v>99.8619850159871</v>
       </c>
       <c r="X13" t="n">
-        <v>100</v>
+        <v>99.86052294595021</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.21951376738689</v>
+        <v>99.86556719554243</v>
       </c>
       <c r="Z13" t="n">
-        <v>100</v>
+        <v>99.86110322761405</v>
       </c>
       <c r="AA13" t="n">
-        <v>100</v>
+        <v>99.91129414596233</v>
       </c>
       <c r="AB13" t="n">
-        <v>100</v>
+        <v>99.92200507927926</v>
       </c>
       <c r="AC13" t="n">
-        <v>100</v>
+        <v>99.93987334994098</v>
       </c>
       <c r="AD13" t="n">
-        <v>100</v>
+        <v>99.95180246272784</v>
       </c>
       <c r="AE13" t="n">
-        <v>100</v>
+        <v>99.99798211878974</v>
       </c>
     </row>
     <row r="14">
@@ -1673,94 +1673,94 @@
         <v>100</v>
       </c>
       <c r="B14" t="n">
-        <v>99.72057580193069</v>
+        <v>98.81839698690301</v>
       </c>
       <c r="C14" t="n">
-        <v>97.01138123784227</v>
+        <v>97.46525323103509</v>
       </c>
       <c r="D14" t="n">
-        <v>96.30820360528159</v>
+        <v>96.67507564813396</v>
       </c>
       <c r="E14" t="n">
-        <v>95.32959232019618</v>
+        <v>95.00568475337693</v>
       </c>
       <c r="F14" t="n">
-        <v>84.93769193886806</v>
+        <v>95.24121619389864</v>
       </c>
       <c r="G14" t="n">
-        <v>100</v>
+        <v>95.04843404573974</v>
       </c>
       <c r="H14" t="n">
-        <v>98.65342837275955</v>
+        <v>95.61079990050469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.57853987991862</v>
+        <v>96.45801276710787</v>
       </c>
       <c r="J14" t="n">
-        <v>98.06177726499519</v>
+        <v>97.38455120118091</v>
       </c>
       <c r="K14" t="n">
-        <v>100</v>
+        <v>99.98299943409454</v>
       </c>
       <c r="L14" t="n">
-        <v>99.4493485334327</v>
+        <v>99.5832322837295</v>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>99.271628896699</v>
       </c>
       <c r="N14" t="n">
-        <v>100</v>
+        <v>99.05465336631143</v>
       </c>
       <c r="O14" t="n">
-        <v>98.59792947204654</v>
+        <v>98.94441261183586</v>
       </c>
       <c r="P14" t="n">
-        <v>100</v>
+        <v>99.03176138897273</v>
       </c>
       <c r="Q14" t="n">
-        <v>100</v>
+        <v>99.09307018100752</v>
       </c>
       <c r="R14" t="n">
-        <v>100</v>
+        <v>99.30717474314093</v>
       </c>
       <c r="S14" t="n">
-        <v>97.06051622289031</v>
+        <v>99.47619691519147</v>
       </c>
       <c r="T14" t="n">
-        <v>100</v>
+        <v>99.58059577814042</v>
       </c>
       <c r="U14" t="n">
-        <v>100</v>
+        <v>99.98751196807486</v>
       </c>
       <c r="V14" t="n">
-        <v>100</v>
+        <v>99.9292157121283</v>
       </c>
       <c r="W14" t="n">
-        <v>100</v>
+        <v>99.89740901991135</v>
       </c>
       <c r="X14" t="n">
-        <v>100</v>
+        <v>99.89466939696854</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.05074246982825</v>
+        <v>99.87355754450469</v>
       </c>
       <c r="Z14" t="n">
-        <v>100</v>
+        <v>99.89180847644985</v>
       </c>
       <c r="AA14" t="n">
-        <v>100</v>
+        <v>99.90401017506319</v>
       </c>
       <c r="AB14" t="n">
-        <v>100</v>
+        <v>99.94210730136436</v>
       </c>
       <c r="AC14" t="n">
-        <v>100</v>
+        <v>99.9262514590218</v>
       </c>
       <c r="AD14" t="n">
-        <v>100</v>
+        <v>99.95358105780349</v>
       </c>
       <c r="AE14" t="n">
-        <v>100</v>
+        <v>99.99401693641754</v>
       </c>
     </row>
     <row r="15">
@@ -1768,91 +1768,91 @@
         <v>100</v>
       </c>
       <c r="B15" t="n">
-        <v>99.33655574977192</v>
+        <v>98.75710461631274</v>
       </c>
       <c r="C15" t="n">
-        <v>97.78649423157395</v>
+        <v>97.59487818154118</v>
       </c>
       <c r="D15" t="n">
-        <v>95.92629826696637</v>
+        <v>95.47693542760196</v>
       </c>
       <c r="E15" t="n">
-        <v>98.1569310683379</v>
+        <v>95.17691951979032</v>
       </c>
       <c r="F15" t="n">
-        <v>96.09930995928282</v>
+        <v>94.74869939223308</v>
       </c>
       <c r="G15" t="n">
-        <v>95.33232797952127</v>
+        <v>95.01945880039527</v>
       </c>
       <c r="H15" t="n">
-        <v>95.83210262918411</v>
+        <v>95.2358273397567</v>
       </c>
       <c r="I15" t="n">
-        <v>100</v>
+        <v>96.38865037844533</v>
       </c>
       <c r="J15" t="n">
-        <v>96.10828891416487</v>
+        <v>97.56956211277456</v>
       </c>
       <c r="K15" t="n">
-        <v>100</v>
+        <v>99.96467490001451</v>
       </c>
       <c r="L15" t="n">
-        <v>100</v>
+        <v>99.63458509917629</v>
       </c>
       <c r="M15" t="n">
-        <v>98.579711138427</v>
+        <v>99.26575741933176</v>
       </c>
       <c r="N15" t="n">
-        <v>98.78723479981863</v>
+        <v>99.07936915638244</v>
       </c>
       <c r="O15" t="n">
-        <v>100</v>
+        <v>99.00936816752144</v>
       </c>
       <c r="P15" t="n">
-        <v>100</v>
+        <v>99.05822268482038</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.03791795812171</v>
+        <v>99.15423652567087</v>
       </c>
       <c r="R15" t="n">
-        <v>98.70309729790392</v>
+        <v>99.24252490137759</v>
       </c>
       <c r="S15" t="n">
-        <v>99.16950039985331</v>
+        <v>99.55037123633335</v>
       </c>
       <c r="T15" t="n">
-        <v>100</v>
+        <v>99.69245179705018</v>
       </c>
       <c r="U15" t="n">
-        <v>100</v>
+        <v>99.9823895790142</v>
       </c>
       <c r="V15" t="n">
-        <v>100</v>
+        <v>99.93848627619538</v>
       </c>
       <c r="W15" t="n">
-        <v>100</v>
+        <v>99.91437630109782</v>
       </c>
       <c r="X15" t="n">
-        <v>100</v>
+        <v>99.87612734307733</v>
       </c>
       <c r="Y15" t="n">
-        <v>100</v>
+        <v>99.87541402243309</v>
       </c>
       <c r="Z15" t="n">
-        <v>100</v>
+        <v>99.93378929422072</v>
       </c>
       <c r="AA15" t="n">
-        <v>100</v>
+        <v>99.91089474149065</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.15195394147123</v>
+        <v>99.93906782970407</v>
       </c>
       <c r="AC15" t="n">
-        <v>100</v>
+        <v>99.95607754336214</v>
       </c>
       <c r="AD15" t="n">
-        <v>100</v>
+        <v>99.97171602620443</v>
       </c>
       <c r="AE15" t="n">
         <v>100</v>
@@ -1863,91 +1863,91 @@
         <v>100</v>
       </c>
       <c r="B16" t="n">
-        <v>98.24906147578523</v>
+        <v>98.82855237866185</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>96.43503775888652</v>
       </c>
       <c r="D16" t="n">
-        <v>90.72682548867496</v>
+        <v>95.79067798099108</v>
       </c>
       <c r="E16" t="n">
-        <v>93.63021511682348</v>
+        <v>94.81857705307137</v>
       </c>
       <c r="F16" t="n">
-        <v>96.15321224250235</v>
+        <v>94.79773208189425</v>
       </c>
       <c r="G16" t="n">
-        <v>90.61356451868559</v>
+        <v>94.72616106250835</v>
       </c>
       <c r="H16" t="n">
-        <v>94.43680959580887</v>
+        <v>95.36597657542804</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84273084852299</v>
+        <v>96.6795286773572</v>
       </c>
       <c r="J16" t="n">
-        <v>95.78285226057974</v>
+        <v>97.5783598154807</v>
       </c>
       <c r="K16" t="n">
-        <v>100</v>
+        <v>99.98949560497846</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>99.64446831537072</v>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>99.16279132793836</v>
       </c>
       <c r="N16" t="n">
-        <v>97.85172394576094</v>
+        <v>99.07233993487012</v>
       </c>
       <c r="O16" t="n">
-        <v>100</v>
+        <v>99.05934949326243</v>
       </c>
       <c r="P16" t="n">
-        <v>100</v>
+        <v>99.0576065697424</v>
       </c>
       <c r="Q16" t="n">
-        <v>100</v>
+        <v>99.18554739299972</v>
       </c>
       <c r="R16" t="n">
-        <v>98.77223756453778</v>
+        <v>99.43314884812935</v>
       </c>
       <c r="S16" t="n">
-        <v>99.31188031310623</v>
+        <v>99.57130143509497</v>
       </c>
       <c r="T16" t="n">
-        <v>100</v>
+        <v>99.6953362790871</v>
       </c>
       <c r="U16" t="n">
-        <v>100</v>
+        <v>99.99539496459107</v>
       </c>
       <c r="V16" t="n">
-        <v>100</v>
+        <v>99.94624769603392</v>
       </c>
       <c r="W16" t="n">
-        <v>100</v>
+        <v>99.88565461178618</v>
       </c>
       <c r="X16" t="n">
-        <v>100</v>
+        <v>99.89363640267219</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.19787339050711</v>
+        <v>99.91342752240897</v>
       </c>
       <c r="Z16" t="n">
-        <v>99.21450726761938</v>
+        <v>99.91540102457347</v>
       </c>
       <c r="AA16" t="n">
-        <v>100</v>
+        <v>99.91525160043405</v>
       </c>
       <c r="AB16" t="n">
-        <v>100</v>
+        <v>99.94349563754656</v>
       </c>
       <c r="AC16" t="n">
-        <v>100</v>
+        <v>99.97342276264899</v>
       </c>
       <c r="AD16" t="n">
-        <v>100</v>
+        <v>99.97056993838102</v>
       </c>
       <c r="AE16" t="n">
         <v>100</v>
@@ -1958,94 +1958,94 @@
         <v>100</v>
       </c>
       <c r="B17" t="n">
-        <v>98.06638521808341</v>
+        <v>98.93680208766918</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>96.77167418428284</v>
       </c>
       <c r="D17" t="n">
-        <v>97.31500196810737</v>
+        <v>95.91966202194243</v>
       </c>
       <c r="E17" t="n">
-        <v>90.3618060757189</v>
+        <v>94.95941727046981</v>
       </c>
       <c r="F17" t="n">
-        <v>93.58294461100705</v>
+        <v>94.77031008480745</v>
       </c>
       <c r="G17" t="n">
-        <v>94.53301981542009</v>
+        <v>94.71099338004097</v>
       </c>
       <c r="H17" t="n">
-        <v>94.53251700025247</v>
+        <v>95.52629784354117</v>
       </c>
       <c r="I17" t="n">
-        <v>94.52547424345171</v>
+        <v>96.05603032715202</v>
       </c>
       <c r="J17" t="n">
-        <v>97.91977654532279</v>
+        <v>97.70878131362326</v>
       </c>
       <c r="K17" t="n">
-        <v>100</v>
+        <v>99.98508047412716</v>
       </c>
       <c r="L17" t="n">
-        <v>100</v>
+        <v>99.64021195225241</v>
       </c>
       <c r="M17" t="n">
-        <v>98.93868760103865</v>
+        <v>99.22336390109817</v>
       </c>
       <c r="N17" t="n">
-        <v>99.06209883765213</v>
+        <v>99.16934805166207</v>
       </c>
       <c r="O17" t="n">
-        <v>98.89000986764485</v>
+        <v>99.02953399994658</v>
       </c>
       <c r="P17" t="n">
-        <v>99.63433586329846</v>
+        <v>99.15929209717459</v>
       </c>
       <c r="Q17" t="n">
-        <v>100</v>
+        <v>99.19576132798898</v>
       </c>
       <c r="R17" t="n">
-        <v>100</v>
+        <v>99.35586131088596</v>
       </c>
       <c r="S17" t="n">
-        <v>98.8943881046054</v>
+        <v>99.42827561235282</v>
       </c>
       <c r="T17" t="n">
-        <v>100</v>
+        <v>99.72160482662832</v>
       </c>
       <c r="U17" t="n">
-        <v>100</v>
+        <v>99.98849595998681</v>
       </c>
       <c r="V17" t="n">
-        <v>100</v>
+        <v>99.94441390181262</v>
       </c>
       <c r="W17" t="n">
-        <v>100</v>
+        <v>99.89814158328339</v>
       </c>
       <c r="X17" t="n">
-        <v>100</v>
+        <v>99.90751078202298</v>
       </c>
       <c r="Y17" t="n">
-        <v>100</v>
+        <v>99.90190782338119</v>
       </c>
       <c r="Z17" t="n">
-        <v>100</v>
+        <v>99.92332479137006</v>
       </c>
       <c r="AA17" t="n">
-        <v>100</v>
+        <v>99.93541513833971</v>
       </c>
       <c r="AB17" t="n">
-        <v>100</v>
+        <v>99.94973572667391</v>
       </c>
       <c r="AC17" t="n">
-        <v>100</v>
+        <v>99.96584827418083</v>
       </c>
       <c r="AD17" t="n">
-        <v>100</v>
+        <v>99.97992699047546</v>
       </c>
       <c r="AE17" t="n">
-        <v>100</v>
+        <v>99.99834939982516</v>
       </c>
     </row>
     <row r="18">
@@ -2053,94 +2053,94 @@
         <v>100</v>
       </c>
       <c r="B18" t="n">
-        <v>98.28622433040965</v>
+        <v>98.89397532745126</v>
       </c>
       <c r="C18" t="n">
-        <v>97.02448467517104</v>
+        <v>96.88024741871266</v>
       </c>
       <c r="D18" t="n">
-        <v>96.72645563923382</v>
+        <v>95.4793691195171</v>
       </c>
       <c r="E18" t="n">
-        <v>96.96013525770206</v>
+        <v>94.93341791992516</v>
       </c>
       <c r="F18" t="n">
-        <v>96.65564758868453</v>
+        <v>94.35750996587353</v>
       </c>
       <c r="G18" t="n">
-        <v>91.44977846731712</v>
+        <v>94.83489955301881</v>
       </c>
       <c r="H18" t="n">
-        <v>96.13716358624134</v>
+        <v>95.08428327308029</v>
       </c>
       <c r="I18" t="n">
-        <v>96.67169418172996</v>
+        <v>96.15991459532675</v>
       </c>
       <c r="J18" t="n">
-        <v>98.82349939160595</v>
+        <v>97.89254525223235</v>
       </c>
       <c r="K18" t="n">
-        <v>100</v>
+        <v>99.96980215950887</v>
       </c>
       <c r="L18" t="n">
-        <v>99.4989660633501</v>
+        <v>99.65386161582536</v>
       </c>
       <c r="M18" t="n">
-        <v>98.07826484505415</v>
+        <v>99.28964618886738</v>
       </c>
       <c r="N18" t="n">
-        <v>98.95493869447904</v>
+        <v>99.15260777631303</v>
       </c>
       <c r="O18" t="n">
-        <v>99.55600992160676</v>
+        <v>99.1257232854816</v>
       </c>
       <c r="P18" t="n">
-        <v>98.91963365947785</v>
+        <v>99.05652756583547</v>
       </c>
       <c r="Q18" t="n">
-        <v>100</v>
+        <v>99.26290120135548</v>
       </c>
       <c r="R18" t="n">
-        <v>100</v>
+        <v>99.29024555530521</v>
       </c>
       <c r="S18" t="n">
-        <v>97.98183524341708</v>
+        <v>99.52541562414551</v>
       </c>
       <c r="T18" t="n">
-        <v>97.77524622210822</v>
+        <v>99.74003173751245</v>
       </c>
       <c r="U18" t="n">
-        <v>100</v>
+        <v>99.99599125849173</v>
       </c>
       <c r="V18" t="n">
-        <v>100</v>
+        <v>99.95075320210971</v>
       </c>
       <c r="W18" t="n">
-        <v>100</v>
+        <v>99.92579019658727</v>
       </c>
       <c r="X18" t="n">
-        <v>100</v>
+        <v>99.91514639319044</v>
       </c>
       <c r="Y18" t="n">
-        <v>100</v>
+        <v>99.92884656335688</v>
       </c>
       <c r="Z18" t="n">
-        <v>100</v>
+        <v>99.91758235073006</v>
       </c>
       <c r="AA18" t="n">
-        <v>99.09635108694795</v>
+        <v>99.93890783087086</v>
       </c>
       <c r="AB18" t="n">
-        <v>100</v>
+        <v>99.94439538274264</v>
       </c>
       <c r="AC18" t="n">
-        <v>100</v>
+        <v>99.97572503168941</v>
       </c>
       <c r="AD18" t="n">
-        <v>100</v>
+        <v>99.9901843575764</v>
       </c>
       <c r="AE18" t="n">
-        <v>100</v>
+        <v>99.9983830834877</v>
       </c>
     </row>
     <row r="19">
@@ -2148,91 +2148,91 @@
         <v>100</v>
       </c>
       <c r="B19" t="n">
-        <v>100</v>
+        <v>99.00906206687294</v>
       </c>
       <c r="C19" t="n">
-        <v>96.82926300252082</v>
+        <v>96.99935101707301</v>
       </c>
       <c r="D19" t="n">
-        <v>96.54197262670363</v>
+        <v>95.43039938104972</v>
       </c>
       <c r="E19" t="n">
-        <v>88.1076597263493</v>
+        <v>94.48986024599621</v>
       </c>
       <c r="F19" t="n">
-        <v>96.87441909089635</v>
+        <v>94.37312942168687</v>
       </c>
       <c r="G19" t="n">
-        <v>96.66890186081956</v>
+        <v>94.34421361529265</v>
       </c>
       <c r="H19" t="n">
-        <v>95.58183749637443</v>
+        <v>95.1347220821402</v>
       </c>
       <c r="I19" t="n">
-        <v>99.52249730576106</v>
+        <v>96.36241792239527</v>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>97.90252182239679</v>
       </c>
       <c r="K19" t="n">
-        <v>100</v>
+        <v>99.98190038614466</v>
       </c>
       <c r="L19" t="n">
-        <v>100</v>
+        <v>99.70919702298033</v>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>99.32501212654147</v>
       </c>
       <c r="N19" t="n">
-        <v>99.01038605701387</v>
+        <v>99.15115306802412</v>
       </c>
       <c r="O19" t="n">
-        <v>98.69593823798925</v>
+        <v>99.12706999684127</v>
       </c>
       <c r="P19" t="n">
-        <v>97.37740948380906</v>
+        <v>99.25591731524865</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.97126626863752</v>
+        <v>99.24117717516046</v>
       </c>
       <c r="R19" t="n">
-        <v>99.14725662285358</v>
+        <v>99.39385596222307</v>
       </c>
       <c r="S19" t="n">
-        <v>100</v>
+        <v>99.57330707759724</v>
       </c>
       <c r="T19" t="n">
-        <v>100</v>
+        <v>99.79671985535084</v>
       </c>
       <c r="U19" t="n">
-        <v>100</v>
+        <v>99.99359180799246</v>
       </c>
       <c r="V19" t="n">
-        <v>100</v>
+        <v>99.9554610699589</v>
       </c>
       <c r="W19" t="n">
-        <v>100</v>
+        <v>99.91463361286623</v>
       </c>
       <c r="X19" t="n">
-        <v>100</v>
+        <v>99.91601939041421</v>
       </c>
       <c r="Y19" t="n">
-        <v>100</v>
+        <v>99.90926526666345</v>
       </c>
       <c r="Z19" t="n">
-        <v>100</v>
+        <v>99.92518510433132</v>
       </c>
       <c r="AA19" t="n">
-        <v>100</v>
+        <v>99.94027084840521</v>
       </c>
       <c r="AB19" t="n">
-        <v>100</v>
+        <v>99.95741899859355</v>
       </c>
       <c r="AC19" t="n">
-        <v>100</v>
+        <v>99.97945109875253</v>
       </c>
       <c r="AD19" t="n">
-        <v>100</v>
+        <v>99.98736053489374</v>
       </c>
       <c r="AE19" t="n">
         <v>100</v>
@@ -2243,91 +2243,91 @@
         <v>100</v>
       </c>
       <c r="B20" t="n">
-        <v>99.50385550322842</v>
+        <v>99.04056367654609</v>
       </c>
       <c r="C20" t="n">
-        <v>97.51862819795203</v>
+        <v>97.13317202979104</v>
       </c>
       <c r="D20" t="n">
-        <v>93.75365192507054</v>
+        <v>95.53841300886435</v>
       </c>
       <c r="E20" t="n">
-        <v>92.59451458482275</v>
+        <v>94.66671162925395</v>
       </c>
       <c r="F20" t="n">
-        <v>94.61669673160019</v>
+        <v>94.49413896528048</v>
       </c>
       <c r="G20" t="n">
-        <v>96.98585811228362</v>
+        <v>94.55465158716837</v>
       </c>
       <c r="H20" t="n">
-        <v>99.35896197098687</v>
+        <v>95.24161315865256</v>
       </c>
       <c r="I20" t="n">
-        <v>98.36393393003587</v>
+        <v>96.30759617590063</v>
       </c>
       <c r="J20" t="n">
-        <v>95.11403906867942</v>
+        <v>98.02821844636047</v>
       </c>
       <c r="K20" t="n">
-        <v>100</v>
+        <v>99.98555585677983</v>
       </c>
       <c r="L20" t="n">
-        <v>100</v>
+        <v>99.67424532881914</v>
       </c>
       <c r="M20" t="n">
-        <v>98.50109389910877</v>
+        <v>99.29802837450072</v>
       </c>
       <c r="N20" t="n">
-        <v>98.82736366146739</v>
+        <v>99.19256429858223</v>
       </c>
       <c r="O20" t="n">
-        <v>100</v>
+        <v>99.03868873971379</v>
       </c>
       <c r="P20" t="n">
-        <v>98.04336727644781</v>
+        <v>99.21289191594707</v>
       </c>
       <c r="Q20" t="n">
-        <v>100</v>
+        <v>99.29247793208553</v>
       </c>
       <c r="R20" t="n">
-        <v>100</v>
+        <v>99.45551498210207</v>
       </c>
       <c r="S20" t="n">
-        <v>97.19821773847879</v>
+        <v>99.59993372926311</v>
       </c>
       <c r="T20" t="n">
-        <v>100</v>
+        <v>99.79698056603307</v>
       </c>
       <c r="U20" t="n">
-        <v>100</v>
+        <v>99.99638734086928</v>
       </c>
       <c r="V20" t="n">
-        <v>100</v>
+        <v>99.96012832545638</v>
       </c>
       <c r="W20" t="n">
-        <v>99.32329201866061</v>
+        <v>99.94237805585925</v>
       </c>
       <c r="X20" t="n">
-        <v>100</v>
+        <v>99.92156863560983</v>
       </c>
       <c r="Y20" t="n">
-        <v>100</v>
+        <v>99.93166587289612</v>
       </c>
       <c r="Z20" t="n">
-        <v>100</v>
+        <v>99.95002042823276</v>
       </c>
       <c r="AA20" t="n">
-        <v>100</v>
+        <v>99.95549402156261</v>
       </c>
       <c r="AB20" t="n">
-        <v>100</v>
+        <v>99.97233049369223</v>
       </c>
       <c r="AC20" t="n">
-        <v>100</v>
+        <v>99.97131033628382</v>
       </c>
       <c r="AD20" t="n">
-        <v>100</v>
+        <v>99.99089487543462</v>
       </c>
       <c r="AE20" t="n">
         <v>100</v>
@@ -2338,91 +2338,91 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>98.43624735925368</v>
+        <v>98.15293217224028</v>
       </c>
       <c r="C21" t="n">
-        <v>95.28933603323165</v>
+        <v>96.31398528668767</v>
       </c>
       <c r="D21" t="n">
-        <v>100</v>
+        <v>95.30694393653934</v>
       </c>
       <c r="E21" t="n">
-        <v>94.42700625604282</v>
+        <v>94.53717901563695</v>
       </c>
       <c r="F21" t="n">
-        <v>97.81205460910019</v>
+        <v>94.6553824879792</v>
       </c>
       <c r="G21" t="n">
-        <v>96.0691803110623</v>
+        <v>94.33600843971534</v>
       </c>
       <c r="H21" t="n">
-        <v>98.97569798240914</v>
+        <v>95.27618299316998</v>
       </c>
       <c r="I21" t="n">
-        <v>94.72911671528527</v>
+        <v>96.53214418396205</v>
       </c>
       <c r="J21" t="n">
-        <v>99.1350312297406</v>
+        <v>98.03097894714237</v>
       </c>
       <c r="K21" t="n">
-        <v>100</v>
+        <v>99.98594808959488</v>
       </c>
       <c r="L21" t="n">
-        <v>98.94800534918802</v>
+        <v>99.52696307790265</v>
       </c>
       <c r="M21" t="n">
-        <v>99.26265927942947</v>
+        <v>99.21059840689949</v>
       </c>
       <c r="N21" t="n">
-        <v>99.39661576255881</v>
+        <v>99.18213823800353</v>
       </c>
       <c r="O21" t="n">
-        <v>99.01460754038585</v>
+        <v>99.15008184809729</v>
       </c>
       <c r="P21" t="n">
-        <v>100</v>
+        <v>99.31951163373172</v>
       </c>
       <c r="Q21" t="n">
-        <v>100</v>
+        <v>99.25193348384292</v>
       </c>
       <c r="R21" t="n">
-        <v>99.00486540410117</v>
+        <v>99.51411204103864</v>
       </c>
       <c r="S21" t="n">
-        <v>99.1483898027812</v>
+        <v>99.59930424775277</v>
       </c>
       <c r="T21" t="n">
-        <v>100</v>
+        <v>99.78198477838632</v>
       </c>
       <c r="U21" t="n">
         <v>100</v>
       </c>
       <c r="V21" t="n">
-        <v>99.33957335891218</v>
+        <v>99.93654840036027</v>
       </c>
       <c r="W21" t="n">
-        <v>100</v>
+        <v>99.91403948928522</v>
       </c>
       <c r="X21" t="n">
-        <v>100</v>
+        <v>99.9354954313731</v>
       </c>
       <c r="Y21" t="n">
-        <v>100</v>
+        <v>99.93008793202948</v>
       </c>
       <c r="Z21" t="n">
-        <v>100</v>
+        <v>99.94308661191116</v>
       </c>
       <c r="AA21" t="n">
-        <v>100</v>
+        <v>99.94896450875478</v>
       </c>
       <c r="AB21" t="n">
-        <v>100</v>
+        <v>99.96155679641645</v>
       </c>
       <c r="AC21" t="n">
-        <v>100</v>
+        <v>99.98066008285437</v>
       </c>
       <c r="AD21" t="n">
-        <v>100</v>
+        <v>99.99004846804935</v>
       </c>
       <c r="AE21" t="n">
         <v>100</v>

--- a/Implementation/Python/experiment5matching.xlsx
+++ b/Implementation/Python/experiment5matching.xlsx
@@ -836,7 +836,7 @@
         <v>102.4982518754021</v>
       </c>
       <c r="H5" t="n">
-        <v>102.2248057240111</v>
+        <v>102.2148427790632</v>
       </c>
       <c r="I5" t="n">
         <v>101.7532065818992</v>
@@ -854,7 +854,7 @@
         <v>99.63404156385553</v>
       </c>
       <c r="N5" t="n">
-        <v>96.48870352207629</v>
+        <v>96.48323040734465</v>
       </c>
       <c r="O5" t="n">
         <v>96.7194210776609</v>
@@ -863,10 +863,10 @@
         <v>94.00413852500799</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.70483078283218</v>
+        <v>93.69863693567223</v>
       </c>
       <c r="R5" t="n">
-        <v>94.18724349089229</v>
+        <v>94.20325776547207</v>
       </c>
       <c r="S5" t="n">
         <v>93.71868507748452</v>
@@ -922,22 +922,22 @@
         <v>100.8985428913937</v>
       </c>
       <c r="E6" t="n">
-        <v>102.4357420405875</v>
+        <v>102.4915060273508</v>
       </c>
       <c r="F6" t="n">
-        <v>102.6973580345908</v>
+        <v>102.6587086275404</v>
       </c>
       <c r="G6" t="n">
-        <v>103.2808387577772</v>
+        <v>103.2681481070233</v>
       </c>
       <c r="H6" t="n">
-        <v>103.9741137698545</v>
+        <v>103.940843231471</v>
       </c>
       <c r="I6" t="n">
         <v>102.8632130301188</v>
       </c>
       <c r="J6" t="n">
-        <v>101.7617550085088</v>
+        <v>101.7518376517467</v>
       </c>
       <c r="K6" t="n">
         <v>99.81469531777726</v>
@@ -952,7 +952,7 @@
         <v>96.78229698920563</v>
       </c>
       <c r="O6" t="n">
-        <v>93.32414015337449</v>
+        <v>93.33504435912712</v>
       </c>
       <c r="P6" t="n">
         <v>93.53074408904554</v>
@@ -970,7 +970,7 @@
         <v>92.79879694138614</v>
       </c>
       <c r="U6" t="n">
-        <v>98.3718919475364</v>
+        <v>98.36984562782429</v>
       </c>
       <c r="V6" t="n">
         <v>98.03010569320516</v>
@@ -979,7 +979,7 @@
         <v>97.6588412980859</v>
       </c>
       <c r="X6" t="n">
-        <v>98.16846846360751</v>
+        <v>98.206951055801</v>
       </c>
       <c r="Y6" t="n">
         <v>97.38960430392596</v>
@@ -997,7 +997,7 @@
         <v>98.32393926342966</v>
       </c>
       <c r="AD6" t="n">
-        <v>98.09818131679067</v>
+        <v>98.09160744112869</v>
       </c>
       <c r="AE6" t="n">
         <v>99.47019301827436</v>
@@ -1017,22 +1017,22 @@
         <v>102.0711594893389</v>
       </c>
       <c r="E7" t="n">
-        <v>102.7410970500851</v>
+        <v>102.7827027099145</v>
       </c>
       <c r="F7" t="n">
-        <v>104.0633247585432</v>
+        <v>104.0780422682047</v>
       </c>
       <c r="G7" t="n">
-        <v>104.2372880161556</v>
+        <v>104.2808009848451</v>
       </c>
       <c r="H7" t="n">
-        <v>104.4445553146443</v>
+        <v>104.4108282427408</v>
       </c>
       <c r="I7" t="n">
-        <v>103.4494088893144</v>
+        <v>103.4559528874029</v>
       </c>
       <c r="J7" t="n">
-        <v>102.154482137807</v>
+        <v>102.1558560963719</v>
       </c>
       <c r="K7" t="n">
         <v>99.96339207146583</v>
@@ -1041,10 +1041,10 @@
         <v>100.1091440422886</v>
       </c>
       <c r="M7" t="n">
-        <v>96.79278521060328</v>
+        <v>96.79384174219865</v>
       </c>
       <c r="N7" t="n">
-        <v>96.96199519954403</v>
+        <v>96.96930829410252</v>
       </c>
       <c r="O7" t="n">
         <v>93.8266801530084</v>
@@ -1053,7 +1053,7 @@
         <v>91.23599466240702</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.84550118452709</v>
+        <v>90.85777085469854</v>
       </c>
       <c r="R7" t="n">
         <v>90.91934035373491</v>
@@ -1074,7 +1074,7 @@
         <v>97.80331419182798</v>
       </c>
       <c r="X7" t="n">
-        <v>97.94410611956567</v>
+        <v>97.95401439099315</v>
       </c>
       <c r="Y7" t="n">
         <v>97.63018206043208</v>
@@ -1109,49 +1109,49 @@
         <v>101.6083653952885</v>
       </c>
       <c r="D8" t="n">
-        <v>103.1115304021972</v>
+        <v>103.0561123115249</v>
       </c>
       <c r="E8" t="n">
-        <v>103.6703729017766</v>
+        <v>103.6755851631081</v>
       </c>
       <c r="F8" t="n">
-        <v>104.8305096053202</v>
+        <v>104.7761534788407</v>
       </c>
       <c r="G8" t="n">
-        <v>106.0901844884086</v>
+        <v>106.1174694898942</v>
       </c>
       <c r="H8" t="n">
-        <v>105.1745835807319</v>
+        <v>105.2214050526931</v>
       </c>
       <c r="I8" t="n">
-        <v>104.7562989249681</v>
+        <v>104.7162040559017</v>
       </c>
       <c r="J8" t="n">
         <v>103.2648936915209</v>
       </c>
       <c r="K8" t="n">
-        <v>100.1044687535332</v>
+        <v>100.1010953172432</v>
       </c>
       <c r="L8" t="n">
-        <v>99.8630698593568</v>
+        <v>99.86430150609974</v>
       </c>
       <c r="M8" t="n">
-        <v>97.05414031144896</v>
+        <v>97.05438341199213</v>
       </c>
       <c r="N8" t="n">
-        <v>93.56773921991007</v>
+        <v>93.57348150526703</v>
       </c>
       <c r="O8" t="n">
-        <v>93.85073214260365</v>
+        <v>93.85248249713665</v>
       </c>
       <c r="P8" t="n">
-        <v>91.55739165155769</v>
+        <v>91.56092589289788</v>
       </c>
       <c r="Q8" t="n">
-        <v>89.23452197824727</v>
+        <v>89.23462388710081</v>
       </c>
       <c r="R8" t="n">
-        <v>89.23124215289225</v>
+        <v>89.23211872755942</v>
       </c>
       <c r="S8" t="n">
         <v>89.15231983957487</v>
@@ -1204,46 +1204,46 @@
         <v>102.1376165719281</v>
       </c>
       <c r="D9" t="n">
-        <v>104.0002759740344</v>
+        <v>103.9512454031889</v>
       </c>
       <c r="E9" t="n">
-        <v>105.629114556683</v>
+        <v>105.5938648679107</v>
       </c>
       <c r="F9" t="n">
-        <v>106.0753650647029</v>
+        <v>106.037737352667</v>
       </c>
       <c r="G9" t="n">
-        <v>107.4611667564633</v>
+        <v>107.4166108602952</v>
       </c>
       <c r="H9" t="n">
-        <v>106.2060817749836</v>
+        <v>106.0683499976453</v>
       </c>
       <c r="I9" t="n">
-        <v>105.9887666847631</v>
+        <v>105.9482190549168</v>
       </c>
       <c r="J9" t="n">
-        <v>103.3950457521478</v>
+        <v>103.4069887322606</v>
       </c>
       <c r="K9" t="n">
-        <v>100.0454425310894</v>
+        <v>100.0346934837689</v>
       </c>
       <c r="L9" t="n">
-        <v>100.0989176995647</v>
+        <v>100.1020953053739</v>
       </c>
       <c r="M9" t="n">
-        <v>97.25754026328892</v>
+        <v>97.26047519419569</v>
       </c>
       <c r="N9" t="n">
-        <v>93.80711614282362</v>
+        <v>93.81057248956452</v>
       </c>
       <c r="O9" t="n">
-        <v>91.25551709300795</v>
+        <v>91.24499000272917</v>
       </c>
       <c r="P9" t="n">
         <v>89.45119666199975</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.43036219451862</v>
+        <v>89.43095072156274</v>
       </c>
       <c r="R9" t="n">
         <v>87.81044831345683</v>
@@ -1258,7 +1258,7 @@
         <v>98.2599675277761</v>
       </c>
       <c r="V9" t="n">
-        <v>97.67268363740736</v>
+        <v>97.67455010419012</v>
       </c>
       <c r="W9" t="n">
         <v>98.25714922724822</v>
@@ -1267,19 +1267,19 @@
         <v>97.64752487987403</v>
       </c>
       <c r="Y9" t="n">
-        <v>97.03759813970163</v>
+        <v>97.03364962535048</v>
       </c>
       <c r="Z9" t="n">
         <v>96.73072086322306</v>
       </c>
       <c r="AA9" t="n">
-        <v>96.70475850423877</v>
+        <v>96.6928343297176</v>
       </c>
       <c r="AB9" t="n">
         <v>96.80345303127898</v>
       </c>
       <c r="AC9" t="n">
-        <v>97.13972297067156</v>
+        <v>97.14198309864356</v>
       </c>
       <c r="AD9" t="n">
         <v>98.28347971854338</v>
@@ -1299,25 +1299,25 @@
         <v>101.6950099786563</v>
       </c>
       <c r="D10" t="n">
-        <v>104.3726770199647</v>
+        <v>104.358387387714</v>
       </c>
       <c r="E10" t="n">
-        <v>106.6058313845794</v>
+        <v>106.5243040188193</v>
       </c>
       <c r="F10" t="n">
-        <v>105.9616938635266</v>
+        <v>106.0071713036036</v>
       </c>
       <c r="G10" t="n">
-        <v>106.3409177288723</v>
+        <v>106.3685687049372</v>
       </c>
       <c r="H10" t="n">
-        <v>107.8675816985876</v>
+        <v>107.8735478646315</v>
       </c>
       <c r="I10" t="n">
-        <v>105.8051969999728</v>
+        <v>105.8614336601387</v>
       </c>
       <c r="J10" t="n">
-        <v>103.8222092006744</v>
+        <v>103.8301277911921</v>
       </c>
       <c r="K10" t="n">
         <v>100.0684560396439</v>
@@ -1326,10 +1326,10 @@
         <v>100.4524815272686</v>
       </c>
       <c r="M10" t="n">
-        <v>97.52019878201095</v>
+        <v>97.5176813902461</v>
       </c>
       <c r="N10" t="n">
-        <v>94.34915259007383</v>
+        <v>94.33933154265823</v>
       </c>
       <c r="O10" t="n">
         <v>91.67632896985285</v>
@@ -1338,22 +1338,22 @@
         <v>89.54359332434278</v>
       </c>
       <c r="Q10" t="n">
-        <v>87.62645795179395</v>
+        <v>87.61158974005413</v>
       </c>
       <c r="R10" t="n">
-        <v>86.84194837800948</v>
+        <v>86.84187721842052</v>
       </c>
       <c r="S10" t="n">
-        <v>87.19951822238934</v>
+        <v>87.20033147129935</v>
       </c>
       <c r="T10" t="n">
-        <v>90.85650679868861</v>
+        <v>90.85221411008746</v>
       </c>
       <c r="U10" t="n">
         <v>97.86672208030994</v>
       </c>
       <c r="V10" t="n">
-        <v>98.00243177097893</v>
+        <v>97.99381904389958</v>
       </c>
       <c r="W10" t="n">
         <v>98.1994581966039</v>
@@ -1365,7 +1365,7 @@
         <v>97.15831806076901</v>
       </c>
       <c r="Z10" t="n">
-        <v>96.89320688019218</v>
+        <v>96.89948569496264</v>
       </c>
       <c r="AA10" t="n">
         <v>96.66879358841854</v>
@@ -1391,79 +1391,79 @@
         <v>102.3227164751204</v>
       </c>
       <c r="C11" t="n">
-        <v>103.5546977670814</v>
+        <v>103.6062185656952</v>
       </c>
       <c r="D11" t="n">
-        <v>106.7811601621874</v>
+        <v>106.8657124911399</v>
       </c>
       <c r="E11" t="n">
-        <v>108.0628512064822</v>
+        <v>108.0169969820137</v>
       </c>
       <c r="F11" t="n">
-        <v>108.647746205584</v>
+        <v>108.6116509433092</v>
       </c>
       <c r="G11" t="n">
-        <v>107.1802583641927</v>
+        <v>107.1910850173579</v>
       </c>
       <c r="H11" t="n">
-        <v>107.5994995383582</v>
+        <v>107.6463332397606</v>
       </c>
       <c r="I11" t="n">
-        <v>106.0076012366418</v>
+        <v>106.0206488117649</v>
       </c>
       <c r="J11" t="n">
-        <v>103.187454148248</v>
+        <v>103.1973396675246</v>
       </c>
       <c r="K11" t="n">
-        <v>100.3982892537775</v>
+        <v>100.3976629040003</v>
       </c>
       <c r="L11" t="n">
-        <v>97.49852384386377</v>
+        <v>97.49862839605251</v>
       </c>
       <c r="M11" t="n">
         <v>94.72142958550872</v>
       </c>
       <c r="N11" t="n">
-        <v>92.11425097032385</v>
+        <v>92.10942111436574</v>
       </c>
       <c r="O11" t="n">
-        <v>89.65035571310428</v>
+        <v>89.65034158997852</v>
       </c>
       <c r="P11" t="n">
-        <v>87.98586941572229</v>
+        <v>87.98525442972665</v>
       </c>
       <c r="Q11" t="n">
-        <v>86.37952921184834</v>
+        <v>86.37809251891582</v>
       </c>
       <c r="R11" t="n">
-        <v>85.63586700518135</v>
+        <v>85.63601657092792</v>
       </c>
       <c r="S11" t="n">
-        <v>86.32784254065636</v>
+        <v>86.31864809878721</v>
       </c>
       <c r="T11" t="n">
-        <v>89.77552017269103</v>
+        <v>89.77872452701932</v>
       </c>
       <c r="U11" t="n">
         <v>97.64264997846402</v>
       </c>
       <c r="V11" t="n">
-        <v>98.30153555551297</v>
+        <v>98.30529895312065</v>
       </c>
       <c r="W11" t="n">
         <v>97.7820664380687</v>
       </c>
       <c r="X11" t="n">
-        <v>96.98546900074285</v>
+        <v>96.98349706009704</v>
       </c>
       <c r="Y11" t="n">
-        <v>96.66282635377819</v>
+        <v>96.66732229138158</v>
       </c>
       <c r="Z11" t="n">
         <v>96.55074727658264</v>
       </c>
       <c r="AA11" t="n">
-        <v>96.4428590312521</v>
+        <v>96.44052317807788</v>
       </c>
       <c r="AB11" t="n">
         <v>96.81290750848363</v>
@@ -1472,7 +1472,7 @@
         <v>97.33747599174495</v>
       </c>
       <c r="AD11" t="n">
-        <v>98.17022358044699</v>
+        <v>98.16802216764086</v>
       </c>
       <c r="AE11" t="n">
         <v>99.64134665936221</v>
@@ -1486,64 +1486,64 @@
         <v>102.4148662453371</v>
       </c>
       <c r="C12" t="n">
-        <v>105.0397427347986</v>
+        <v>105.0065082454069</v>
       </c>
       <c r="D12" t="n">
-        <v>106.964549939601</v>
+        <v>106.7915303878277</v>
       </c>
       <c r="E12" t="n">
-        <v>108.0536719132382</v>
+        <v>107.9813958833347</v>
       </c>
       <c r="F12" t="n">
-        <v>108.7614332361625</v>
+        <v>108.6661614889476</v>
       </c>
       <c r="G12" t="n">
-        <v>108.1817676468989</v>
+        <v>108.1488569769848</v>
       </c>
       <c r="H12" t="n">
-        <v>108.2947275670687</v>
+        <v>108.1573525613647</v>
       </c>
       <c r="I12" t="n">
-        <v>107.7987669714406</v>
+        <v>107.8292372789451</v>
       </c>
       <c r="J12" t="n">
-        <v>105.9685640053444</v>
+        <v>105.9358525117592</v>
       </c>
       <c r="K12" t="n">
-        <v>100.1670134071426</v>
+        <v>100.1665056618247</v>
       </c>
       <c r="L12" t="n">
-        <v>97.59936842639388</v>
+        <v>97.58473046648267</v>
       </c>
       <c r="M12" t="n">
-        <v>94.81610353811794</v>
+        <v>94.82134909746776</v>
       </c>
       <c r="N12" t="n">
-        <v>92.40692210261223</v>
+        <v>92.39390928331504</v>
       </c>
       <c r="O12" t="n">
-        <v>89.80929699051238</v>
+        <v>89.80528788835709</v>
       </c>
       <c r="P12" t="n">
-        <v>87.52254108155884</v>
+        <v>87.52575234755021</v>
       </c>
       <c r="Q12" t="n">
-        <v>86.43182228359437</v>
+        <v>86.43344704522534</v>
       </c>
       <c r="R12" t="n">
-        <v>85.39363666376879</v>
+        <v>85.3756982476398</v>
       </c>
       <c r="S12" t="n">
-        <v>84.86492737353791</v>
+        <v>84.86117114667094</v>
       </c>
       <c r="T12" t="n">
-        <v>85.71331568271212</v>
+        <v>85.73700319043</v>
       </c>
       <c r="U12" t="n">
         <v>98.25447490829772</v>
       </c>
       <c r="V12" t="n">
-        <v>98.30651597514611</v>
+        <v>98.29841199413406</v>
       </c>
       <c r="W12" t="n">
         <v>97.91424505762851</v>
@@ -1581,76 +1581,76 @@
         <v>102.0124831154412</v>
       </c>
       <c r="C13" t="n">
-        <v>104.425123235728</v>
+        <v>104.4310407677493</v>
       </c>
       <c r="D13" t="n">
-        <v>106.6318215552398</v>
+        <v>106.6753959956883</v>
       </c>
       <c r="E13" t="n">
-        <v>108.2792344116262</v>
+        <v>108.3047223426269</v>
       </c>
       <c r="F13" t="n">
-        <v>109.4414891873468</v>
+        <v>109.2628134658595</v>
       </c>
       <c r="G13" t="n">
-        <v>109.6262263733981</v>
+        <v>109.6215522509324</v>
       </c>
       <c r="H13" t="n">
-        <v>109.0961476474281</v>
+        <v>109.1924621625993</v>
       </c>
       <c r="I13" t="n">
-        <v>107.9029983026559</v>
+        <v>107.9414153345142</v>
       </c>
       <c r="J13" t="n">
-        <v>105.7646750751341</v>
+        <v>105.7593846379528</v>
       </c>
       <c r="K13" t="n">
-        <v>100.1545501839318</v>
+        <v>100.1382884265855</v>
       </c>
       <c r="L13" t="n">
-        <v>97.85593691878761</v>
+        <v>97.87040945287818</v>
       </c>
       <c r="M13" t="n">
-        <v>95.21395927449424</v>
+        <v>95.2187528148782</v>
       </c>
       <c r="N13" t="n">
-        <v>92.7535095120637</v>
+        <v>92.76189042437429</v>
       </c>
       <c r="O13" t="n">
-        <v>90.10187757845993</v>
+        <v>90.10624285976185</v>
       </c>
       <c r="P13" t="n">
-        <v>86.78400532175813</v>
+        <v>86.78559249793058</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.90114945567366</v>
+        <v>84.91531811870171</v>
       </c>
       <c r="R13" t="n">
-        <v>84.20021135639239</v>
+        <v>84.23303237746833</v>
       </c>
       <c r="S13" t="n">
-        <v>83.92001705563378</v>
+        <v>83.92447712516227</v>
       </c>
       <c r="T13" t="n">
-        <v>85.67887623487761</v>
+        <v>85.68382460270428</v>
       </c>
       <c r="U13" t="n">
         <v>97.87904568124036</v>
       </c>
       <c r="V13" t="n">
-        <v>98.29272531610225</v>
+        <v>98.30012511907114</v>
       </c>
       <c r="W13" t="n">
-        <v>97.9852680595546</v>
+        <v>97.99085561505375</v>
       </c>
       <c r="X13" t="n">
-        <v>97.2962868600433</v>
+        <v>97.29875054924577</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.6972479174734</v>
+        <v>96.69590294564311</v>
       </c>
       <c r="Z13" t="n">
-        <v>96.04467613420508</v>
+        <v>96.03887555672785</v>
       </c>
       <c r="AA13" t="n">
         <v>95.91177378590501</v>
@@ -1659,7 +1659,7 @@
         <v>96.11960109538154</v>
       </c>
       <c r="AC13" t="n">
-        <v>96.57973799880175</v>
+        <v>96.58602132609855</v>
       </c>
       <c r="AD13" t="n">
         <v>96.99014873820934</v>
@@ -1676,58 +1676,58 @@
         <v>101.8671662639244</v>
       </c>
       <c r="C14" t="n">
-        <v>104.7945476909683</v>
+        <v>104.7322503601184</v>
       </c>
       <c r="D14" t="n">
-        <v>107.1600935062779</v>
+        <v>107.1943765074491</v>
       </c>
       <c r="E14" t="n">
-        <v>110.3119563815661</v>
+        <v>110.3350684581669</v>
       </c>
       <c r="F14" t="n">
-        <v>110.17619160053</v>
+        <v>110.2586657149613</v>
       </c>
       <c r="G14" t="n">
-        <v>110.6799621115111</v>
+        <v>110.5798400896632</v>
       </c>
       <c r="H14" t="n">
-        <v>108.9883373096171</v>
+        <v>109.0190018411413</v>
       </c>
       <c r="I14" t="n">
-        <v>107.6318939919802</v>
+        <v>107.5171663554259</v>
       </c>
       <c r="J14" t="n">
-        <v>105.7760717748765</v>
+        <v>105.7725308070713</v>
       </c>
       <c r="K14" t="n">
-        <v>100.3469450432938</v>
+        <v>100.3432282318728</v>
       </c>
       <c r="L14" t="n">
-        <v>98.03302164049792</v>
+        <v>98.04153990332853</v>
       </c>
       <c r="M14" t="n">
-        <v>95.50514714452964</v>
+        <v>95.49980084196987</v>
       </c>
       <c r="N14" t="n">
-        <v>93.06328822743377</v>
+        <v>93.0771775050151</v>
       </c>
       <c r="O14" t="n">
-        <v>88.69201635358664</v>
+        <v>88.67832363442835</v>
       </c>
       <c r="P14" t="n">
-        <v>86.83068910995362</v>
+        <v>86.82833261732334</v>
       </c>
       <c r="Q14" t="n">
-        <v>85.11015744261717</v>
+        <v>85.11581143789267</v>
       </c>
       <c r="R14" t="n">
-        <v>83.18005188276838</v>
+        <v>83.19209727499036</v>
       </c>
       <c r="S14" t="n">
-        <v>83.12224804685981</v>
+        <v>83.14474837964426</v>
       </c>
       <c r="T14" t="n">
-        <v>84.60751477678944</v>
+        <v>84.60307798803382</v>
       </c>
       <c r="U14" t="n">
         <v>98.41134681640604</v>
@@ -1736,13 +1736,13 @@
         <v>98.41609753171079</v>
       </c>
       <c r="W14" t="n">
-        <v>97.92785190606789</v>
+        <v>97.93378169604492</v>
       </c>
       <c r="X14" t="n">
         <v>97.27748669973104</v>
       </c>
       <c r="Y14" t="n">
-        <v>96.25559248524463</v>
+        <v>96.25393095036866</v>
       </c>
       <c r="Z14" t="n">
         <v>95.90653085879318</v>
@@ -1771,79 +1771,79 @@
         <v>102.1414072696462</v>
       </c>
       <c r="C15" t="n">
-        <v>105.0296097711374</v>
+        <v>104.9502366960193</v>
       </c>
       <c r="D15" t="n">
-        <v>109.0887743341578</v>
+        <v>109.0165040143963</v>
       </c>
       <c r="E15" t="n">
-        <v>111.4840899056063</v>
+        <v>111.4472796571555</v>
       </c>
       <c r="F15" t="n">
-        <v>110.8829421236984</v>
+        <v>110.7701774740102</v>
       </c>
       <c r="G15" t="n">
-        <v>111.5797000964398</v>
+        <v>111.3377640688815</v>
       </c>
       <c r="H15" t="n">
-        <v>109.8472342667246</v>
+        <v>109.8579287868697</v>
       </c>
       <c r="I15" t="n">
-        <v>107.6864128652015</v>
+        <v>107.7064344163555</v>
       </c>
       <c r="J15" t="n">
-        <v>106.0045364936831</v>
+        <v>106.0037853535834</v>
       </c>
       <c r="K15" t="n">
-        <v>100.3143864717771</v>
+        <v>100.3083414516759</v>
       </c>
       <c r="L15" t="n">
-        <v>97.9969846210824</v>
+        <v>98.00281448197174</v>
       </c>
       <c r="M15" t="n">
-        <v>95.80293465264437</v>
+        <v>95.79385300547729</v>
       </c>
       <c r="N15" t="n">
-        <v>91.19510121959513</v>
+        <v>91.19136920122935</v>
       </c>
       <c r="O15" t="n">
-        <v>89.14664839246306</v>
+        <v>89.15637991688126</v>
       </c>
       <c r="P15" t="n">
-        <v>85.65096707624274</v>
+        <v>85.63307345615206</v>
       </c>
       <c r="Q15" t="n">
-        <v>83.51028059673668</v>
+        <v>83.51349027629418</v>
       </c>
       <c r="R15" t="n">
-        <v>82.64384454000347</v>
+        <v>82.62812898263248</v>
       </c>
       <c r="S15" t="n">
-        <v>82.85930855704596</v>
+        <v>82.8706919464762</v>
       </c>
       <c r="T15" t="n">
-        <v>84.41763170036229</v>
+        <v>84.41853794539</v>
       </c>
       <c r="U15" t="n">
         <v>98.03905747189424</v>
       </c>
       <c r="V15" t="n">
-        <v>98.49920096204582</v>
+        <v>98.50260461241889</v>
       </c>
       <c r="W15" t="n">
-        <v>97.86228936626115</v>
+        <v>97.86052281722883</v>
       </c>
       <c r="X15" t="n">
-        <v>96.71939960479753</v>
+        <v>96.71854001927952</v>
       </c>
       <c r="Y15" t="n">
-        <v>96.27445857947208</v>
+        <v>96.27427443947457</v>
       </c>
       <c r="Z15" t="n">
         <v>95.60641743336507</v>
       </c>
       <c r="AA15" t="n">
-        <v>95.47523255717476</v>
+        <v>95.47484356830668</v>
       </c>
       <c r="AB15" t="n">
         <v>95.5588444401441</v>
@@ -1866,64 +1866,64 @@
         <v>102.0697478553167</v>
       </c>
       <c r="C16" t="n">
-        <v>108.9289473150165</v>
+        <v>108.9719473681239</v>
       </c>
       <c r="D16" t="n">
-        <v>109.1172951541996</v>
+        <v>108.9770903760283</v>
       </c>
       <c r="E16" t="n">
-        <v>111.6839927840266</v>
+        <v>111.4718663181995</v>
       </c>
       <c r="F16" t="n">
-        <v>111.7215790929755</v>
+        <v>111.4955051857918</v>
       </c>
       <c r="G16" t="n">
-        <v>110.6309560526179</v>
+        <v>110.5184046721656</v>
       </c>
       <c r="H16" t="n">
-        <v>110.2108663707302</v>
+        <v>110.1440946623321</v>
       </c>
       <c r="I16" t="n">
-        <v>107.210587582246</v>
+        <v>107.2369738121225</v>
       </c>
       <c r="J16" t="n">
-        <v>105.2203431586213</v>
+        <v>105.1655445468638</v>
       </c>
       <c r="K16" t="n">
-        <v>100.1816869617665</v>
+        <v>100.1734328851936</v>
       </c>
       <c r="L16" t="n">
         <v>98.24532973013788</v>
       </c>
       <c r="M16" t="n">
-        <v>93.72883786287403</v>
+        <v>93.72905063514111</v>
       </c>
       <c r="N16" t="n">
-        <v>91.60009136934906</v>
+        <v>91.59567035209074</v>
       </c>
       <c r="O16" t="n">
-        <v>87.50378682898278</v>
+        <v>87.51387432745807</v>
       </c>
       <c r="P16" t="n">
-        <v>86.08199715162412</v>
+        <v>86.06274133537651</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.19719540252399</v>
+        <v>83.1518079342995</v>
       </c>
       <c r="R16" t="n">
-        <v>82.10233688201517</v>
+        <v>82.12299726313633</v>
       </c>
       <c r="S16" t="n">
-        <v>81.57925223495796</v>
+        <v>81.57146672540954</v>
       </c>
       <c r="T16" t="n">
-        <v>84.0009281030741</v>
+        <v>84.00307171323441</v>
       </c>
       <c r="U16" t="n">
         <v>98.18369731837447</v>
       </c>
       <c r="V16" t="n">
-        <v>98.40326643183531</v>
+        <v>98.40469008912504</v>
       </c>
       <c r="W16" t="n">
         <v>97.40053046031846</v>
@@ -1961,67 +1961,67 @@
         <v>101.8924769165402</v>
       </c>
       <c r="C17" t="n">
-        <v>107.9031150234225</v>
+        <v>107.964950425806</v>
       </c>
       <c r="D17" t="n">
-        <v>110.774312279004</v>
+        <v>111.0052469712571</v>
       </c>
       <c r="E17" t="n">
-        <v>112.7748254300273</v>
+        <v>112.6454001715067</v>
       </c>
       <c r="F17" t="n">
-        <v>112.4842301073899</v>
+        <v>112.5853524894333</v>
       </c>
       <c r="G17" t="n">
-        <v>111.7666733074877</v>
+        <v>111.8610442630949</v>
       </c>
       <c r="H17" t="n">
-        <v>109.0942781496533</v>
+        <v>109.0717208517797</v>
       </c>
       <c r="I17" t="n">
-        <v>108.7301125246147</v>
+        <v>108.721773141616</v>
       </c>
       <c r="J17" t="n">
-        <v>105.2760485898178</v>
+        <v>105.2765758472455</v>
       </c>
       <c r="K17" t="n">
-        <v>100.3103054332936</v>
+        <v>100.3227014856385</v>
       </c>
       <c r="L17" t="n">
-        <v>98.23442283817035</v>
+        <v>98.2449905183248</v>
       </c>
       <c r="M17" t="n">
-        <v>94.00811305561196</v>
+        <v>94.0104890094396</v>
       </c>
       <c r="N17" t="n">
-        <v>91.98413572677991</v>
+        <v>91.98342571952919</v>
       </c>
       <c r="O17" t="n">
-        <v>88.31879628623443</v>
+        <v>88.31853719991423</v>
       </c>
       <c r="P17" t="n">
-        <v>84.58396806091186</v>
+        <v>84.57841028889945</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.58476464052347</v>
+        <v>83.58314450810163</v>
       </c>
       <c r="R17" t="n">
-        <v>81.11803199361199</v>
+        <v>81.10608965370277</v>
       </c>
       <c r="S17" t="n">
-        <v>80.9890794166063</v>
+        <v>80.99807424951931</v>
       </c>
       <c r="T17" t="n">
-        <v>83.11274173865017</v>
+        <v>83.11749040548911</v>
       </c>
       <c r="U17" t="n">
-        <v>97.87855050539974</v>
+        <v>97.88146402588434</v>
       </c>
       <c r="V17" t="n">
-        <v>98.54700784163164</v>
+        <v>98.55082240175989</v>
       </c>
       <c r="W17" t="n">
-        <v>97.49808206188848</v>
+        <v>97.49994628946158</v>
       </c>
       <c r="X17" t="n">
         <v>96.77639740050986</v>
@@ -2030,10 +2030,10 @@
         <v>95.84687899878135</v>
       </c>
       <c r="Z17" t="n">
-        <v>95.01924571286638</v>
+        <v>95.02531127007798</v>
       </c>
       <c r="AA17" t="n">
-        <v>95.03488974983071</v>
+        <v>95.02923813161738</v>
       </c>
       <c r="AB17" t="n">
         <v>95.32978330809661</v>
@@ -2056,85 +2056,85 @@
         <v>102.8807516815228</v>
       </c>
       <c r="C18" t="n">
-        <v>108.22858774841</v>
+        <v>108.1197565752078</v>
       </c>
       <c r="D18" t="n">
-        <v>111.7235085680732</v>
+        <v>111.8363021968035</v>
       </c>
       <c r="E18" t="n">
-        <v>112.7539132735678</v>
+        <v>113.0220598092309</v>
       </c>
       <c r="F18" t="n">
-        <v>113.0511122712075</v>
+        <v>112.7288690213117</v>
       </c>
       <c r="G18" t="n">
-        <v>111.6574280902391</v>
+        <v>111.8640941138248</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4144527213996</v>
+        <v>110.3027865111718</v>
       </c>
       <c r="I18" t="n">
-        <v>108.5142237010912</v>
+        <v>108.5713254073434</v>
       </c>
       <c r="J18" t="n">
-        <v>105.1525054150944</v>
+        <v>105.1693240796501</v>
       </c>
       <c r="K18" t="n">
         <v>100.2907523404135</v>
       </c>
       <c r="L18" t="n">
-        <v>98.33646869193574</v>
+        <v>98.34090613471922</v>
       </c>
       <c r="M18" t="n">
-        <v>94.3142401276645</v>
+        <v>94.31590314870499</v>
       </c>
       <c r="N18" t="n">
-        <v>90.38399062340123</v>
+        <v>90.40570642239615</v>
       </c>
       <c r="O18" t="n">
-        <v>88.45941351877741</v>
+        <v>88.44434454819553</v>
       </c>
       <c r="P18" t="n">
-        <v>85.14709991364853</v>
+        <v>85.14237946000279</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.48672759787186</v>
+        <v>82.47799796187314</v>
       </c>
       <c r="R18" t="n">
-        <v>81.3595193731051</v>
+        <v>81.36256732562072</v>
       </c>
       <c r="S18" t="n">
-        <v>80.46433893426209</v>
+        <v>80.44358360356287</v>
       </c>
       <c r="T18" t="n">
-        <v>83.03659705657205</v>
+        <v>83.04593320329829</v>
       </c>
       <c r="U18" t="n">
-        <v>98.37066159728268</v>
+        <v>98.36938776642499</v>
       </c>
       <c r="V18" t="n">
         <v>98.59061083177238</v>
       </c>
       <c r="W18" t="n">
-        <v>97.49436896231596</v>
+        <v>97.49173159606028</v>
       </c>
       <c r="X18" t="n">
-        <v>96.23296576427633</v>
+        <v>96.23380413571284</v>
       </c>
       <c r="Y18" t="n">
         <v>95.76304897711168</v>
       </c>
       <c r="Z18" t="n">
-        <v>95.01370478426225</v>
+        <v>95.0154493819997</v>
       </c>
       <c r="AA18" t="n">
-        <v>94.71592293762939</v>
+        <v>94.71792762422461</v>
       </c>
       <c r="AB18" t="n">
         <v>94.8777560029383</v>
       </c>
       <c r="AC18" t="n">
-        <v>95.11256352203564</v>
+        <v>95.11316816599231</v>
       </c>
       <c r="AD18" t="n">
         <v>96.78610683348737</v>
@@ -2151,82 +2151,82 @@
         <v>102.9797210081713</v>
       </c>
       <c r="C19" t="n">
-        <v>109.5995279929191</v>
+        <v>109.5507715999776</v>
       </c>
       <c r="D19" t="n">
-        <v>112.6823456544902</v>
+        <v>112.7168995657379</v>
       </c>
       <c r="E19" t="n">
-        <v>113.4974065075752</v>
+        <v>113.6497615164418</v>
       </c>
       <c r="F19" t="n">
-        <v>112.8673792266279</v>
+        <v>113.008967042717</v>
       </c>
       <c r="G19" t="n">
-        <v>111.8847231546699</v>
+        <v>111.8222470088038</v>
       </c>
       <c r="H19" t="n">
-        <v>110.4466426300412</v>
+        <v>110.3669274063355</v>
       </c>
       <c r="I19" t="n">
-        <v>108.3653809908735</v>
+        <v>108.3676033220058</v>
       </c>
       <c r="J19" t="n">
-        <v>105.1951073520459</v>
+        <v>105.204743455871</v>
       </c>
       <c r="K19" t="n">
-        <v>100.4264423867938</v>
+        <v>100.430992362417</v>
       </c>
       <c r="L19" t="n">
-        <v>98.34235654006555</v>
+        <v>98.34909243554225</v>
       </c>
       <c r="M19" t="n">
-        <v>94.60064374115086</v>
+        <v>94.59889944891923</v>
       </c>
       <c r="N19" t="n">
-        <v>90.88259421373799</v>
+        <v>90.85525861472561</v>
       </c>
       <c r="O19" t="n">
-        <v>87.26729382063493</v>
+        <v>87.26425011666461</v>
       </c>
       <c r="P19" t="n">
-        <v>84.33486845246237</v>
+        <v>84.32128822144465</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.9304731097462</v>
+        <v>82.98888711148257</v>
       </c>
       <c r="R19" t="n">
-        <v>80.67030406244228</v>
+        <v>80.68001436686552</v>
       </c>
       <c r="S19" t="n">
-        <v>79.85563944428881</v>
+        <v>79.90502890083093</v>
       </c>
       <c r="T19" t="n">
-        <v>82.15295702962389</v>
+        <v>82.15210279443384</v>
       </c>
       <c r="U19" t="n">
         <v>98.13403206818722</v>
       </c>
       <c r="V19" t="n">
-        <v>98.52729984650179</v>
+        <v>98.52557932775424</v>
       </c>
       <c r="W19" t="n">
-        <v>97.44583323835926</v>
+        <v>97.44910206563256</v>
       </c>
       <c r="X19" t="n">
         <v>96.46015587554912</v>
       </c>
       <c r="Y19" t="n">
-        <v>95.52183809537313</v>
+        <v>95.52372632238807</v>
       </c>
       <c r="Z19" t="n">
-        <v>94.80513894354554</v>
+        <v>94.80225628291706</v>
       </c>
       <c r="AA19" t="n">
-        <v>94.42829830392483</v>
+        <v>94.42776012518134</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.31689781671537</v>
+        <v>94.31901993911957</v>
       </c>
       <c r="AC19" t="n">
         <v>94.90401360426068</v>
@@ -2246,79 +2246,79 @@
         <v>102.6810088560584</v>
       </c>
       <c r="C20" t="n">
-        <v>109.3429356353913</v>
+        <v>109.3680029639698</v>
       </c>
       <c r="D20" t="n">
-        <v>112.9141800430487</v>
+        <v>112.8943714555672</v>
       </c>
       <c r="E20" t="n">
-        <v>114.2512822485554</v>
+        <v>114.2464293158484</v>
       </c>
       <c r="F20" t="n">
-        <v>112.9276348453314</v>
+        <v>112.782857035297</v>
       </c>
       <c r="G20" t="n">
-        <v>112.9930751532425</v>
+        <v>112.7722062740619</v>
       </c>
       <c r="H20" t="n">
-        <v>110.4574848888855</v>
+        <v>110.4638730947616</v>
       </c>
       <c r="I20" t="n">
-        <v>108.3973405219877</v>
+        <v>108.4163660310807</v>
       </c>
       <c r="J20" t="n">
-        <v>105.0994870467325</v>
+        <v>105.0915668397058</v>
       </c>
       <c r="K20" t="n">
-        <v>100.2908170494373</v>
+        <v>100.2913749099565</v>
       </c>
       <c r="L20" t="n">
-        <v>98.56639859248824</v>
+        <v>98.56112085200169</v>
       </c>
       <c r="M20" t="n">
-        <v>94.76310354184926</v>
+        <v>94.75801971008718</v>
       </c>
       <c r="N20" t="n">
-        <v>91.12059433565518</v>
+        <v>91.11652719622984</v>
       </c>
       <c r="O20" t="n">
-        <v>87.557483371098</v>
+        <v>87.57773326922728</v>
       </c>
       <c r="P20" t="n">
-        <v>84.68512763653034</v>
+        <v>84.67563128389257</v>
       </c>
       <c r="Q20" t="n">
-        <v>81.86172093547434</v>
+        <v>81.91121812849261</v>
       </c>
       <c r="R20" t="n">
-        <v>79.90022245221681</v>
+        <v>79.85219355153951</v>
       </c>
       <c r="S20" t="n">
-        <v>79.38701214893655</v>
+        <v>79.40093637036932</v>
       </c>
       <c r="T20" t="n">
-        <v>81.68900485602668</v>
+        <v>81.70813736911256</v>
       </c>
       <c r="U20" t="n">
         <v>98.36230312926293</v>
       </c>
       <c r="V20" t="n">
-        <v>98.46526026439265</v>
+        <v>98.46563661908624</v>
       </c>
       <c r="W20" t="n">
-        <v>97.76984374769745</v>
+        <v>97.77620053707547</v>
       </c>
       <c r="X20" t="n">
-        <v>96.40889740717704</v>
+        <v>96.4112679349667</v>
       </c>
       <c r="Y20" t="n">
-        <v>95.25615115195802</v>
+        <v>95.25542218446024</v>
       </c>
       <c r="Z20" t="n">
         <v>94.73416260030695</v>
       </c>
       <c r="AA20" t="n">
-        <v>94.30959073066477</v>
+        <v>94.31175701269122</v>
       </c>
       <c r="AB20" t="n">
         <v>94.40956970387586</v>
@@ -2327,7 +2327,7 @@
         <v>95.13902755348376</v>
       </c>
       <c r="AD20" t="n">
-        <v>96.64631330534034</v>
+        <v>96.64649934672822</v>
       </c>
       <c r="AE20" t="n">
         <v>99.61882967442033</v>
@@ -2338,88 +2338,88 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>106.1533146066742</v>
+        <v>106.0598588331417</v>
       </c>
       <c r="C21" t="n">
-        <v>111.2169900467771</v>
+        <v>111.1619610157063</v>
       </c>
       <c r="D21" t="n">
-        <v>113.9961021718683</v>
+        <v>113.8069024668769</v>
       </c>
       <c r="E21" t="n">
-        <v>114.4985497927135</v>
+        <v>114.3705528713708</v>
       </c>
       <c r="F21" t="n">
-        <v>113.9024691817401</v>
+        <v>113.48158577839</v>
       </c>
       <c r="G21" t="n">
-        <v>112.0387484331263</v>
+        <v>111.9855972417542</v>
       </c>
       <c r="H21" t="n">
-        <v>110.2742207745044</v>
+        <v>110.2643936774406</v>
       </c>
       <c r="I21" t="n">
-        <v>108.2386564722189</v>
+        <v>108.1434096369427</v>
       </c>
       <c r="J21" t="n">
-        <v>104.8988745853108</v>
+        <v>104.900839589534</v>
       </c>
       <c r="K21" t="n">
-        <v>100.2954519112326</v>
+        <v>100.2998833697989</v>
       </c>
       <c r="L21" t="n">
-        <v>96.82353529881182</v>
+        <v>96.81383276736655</v>
       </c>
       <c r="M21" t="n">
-        <v>93.22661311137691</v>
+        <v>93.20848358080492</v>
       </c>
       <c r="N21" t="n">
-        <v>89.80648081092212</v>
+        <v>89.8158581960944</v>
       </c>
       <c r="O21" t="n">
-        <v>86.57040700801016</v>
+        <v>86.58228904829649</v>
       </c>
       <c r="P21" t="n">
-        <v>83.69719149581792</v>
+        <v>83.7286059695755</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.40590970362285</v>
+        <v>81.36909613809618</v>
       </c>
       <c r="R21" t="n">
-        <v>79.52155679629985</v>
+        <v>79.51552832638001</v>
       </c>
       <c r="S21" t="n">
-        <v>78.67099730504347</v>
+        <v>78.64472813202647</v>
       </c>
       <c r="T21" t="n">
-        <v>81.67168693972899</v>
+        <v>81.66518688292977</v>
       </c>
       <c r="U21" t="n">
-        <v>98.27471272014307</v>
+        <v>98.26291192659913</v>
       </c>
       <c r="V21" t="n">
-        <v>98.22568662231272</v>
+        <v>98.22524806685242</v>
       </c>
       <c r="W21" t="n">
-        <v>97.05149703898117</v>
+        <v>97.05074858820345</v>
       </c>
       <c r="X21" t="n">
-        <v>95.86069707127996</v>
+        <v>95.86045991185</v>
       </c>
       <c r="Y21" t="n">
-        <v>94.96011362578155</v>
+        <v>94.95420021350819</v>
       </c>
       <c r="Z21" t="n">
-        <v>94.37314477457451</v>
+        <v>94.37309777881184</v>
       </c>
       <c r="AA21" t="n">
-        <v>94.05393338118776</v>
+        <v>94.06041351093613</v>
       </c>
       <c r="AB21" t="n">
         <v>94.28058489656192</v>
       </c>
       <c r="AC21" t="n">
-        <v>94.54881713575308</v>
+        <v>94.54575543031375</v>
       </c>
       <c r="AD21" t="n">
         <v>96.66802489788761</v>
